--- a/Original Paper/studies/Study5.xlsx
+++ b/Original Paper/studies/Study5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/yente_de_wael_vub_be/Documents/2022-2023/Semester 2/Bioinformatics/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/yente_de_wael_vub_be/Documents/2022-2023/Semester 2/Bioinformatics/BIOINFO-project/Original Paper/studies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B0FF48F-9835-49E3-BAEC-D679F4DE14BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{0B0FF48F-9835-49E3-BAEC-D679F4DE14BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C287C4B8-304D-4F55-8C75-1C46337DC820}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="28800" windowHeight="11385" xr2:uid="{81046BA7-4C26-4A2D-AE01-2571E2D50CE7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{81046BA7-4C26-4A2D-AE01-2571E2D50CE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="7">
   <si>
     <t>Patient_Anonmyized</t>
   </si>
@@ -166,8 +166,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3CFBC1D-3E3F-4650-A0CA-96C490E6B0ED}" name="Tabelle5" displayName="Tabelle5" ref="A1:D836" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D836" xr:uid="{D3CFBC1D-3E3F-4650-A0CA-96C490E6B0ED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3CFBC1D-3E3F-4650-A0CA-96C490E6B0ED}" name="Tabelle5" displayName="Tabelle5" ref="A1:D835" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D835" xr:uid="{D3CFBC1D-3E3F-4650-A0CA-96C490E6B0ED}"/>
   <tableColumns count="4">
     <tableColumn id="3" xr3:uid="{13EE8645-DF4E-4FC6-9391-D52D8BDF9F6E}" name="Patient_Anonmyized"/>
     <tableColumn id="5" xr3:uid="{244BE65A-7473-4A51-965C-1A9E71F969C1}" name="Treatment_Day"/>
@@ -475,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C05C2D-9AB8-46D9-877A-5E49337C363F}">
-  <dimension ref="A1:D836"/>
+  <dimension ref="A1:D835"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="A266" sqref="A266:XFD266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4201,10 +4201,13 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>7.0714219014944993E+18</v>
+        <v>-3.698725684474304E+18</v>
+      </c>
+      <c r="B266">
+        <v>-14</v>
       </c>
       <c r="C266">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="D266" t="s">
         <v>4</v>
@@ -4215,10 +4218,10 @@
         <v>-3.698725684474304E+18</v>
       </c>
       <c r="B267">
-        <v>-14</v>
+        <v>62</v>
       </c>
       <c r="C267">
-        <v>13.4</v>
+        <v>14.7</v>
       </c>
       <c r="D267" t="s">
         <v>4</v>
@@ -4229,10 +4232,10 @@
         <v>-3.698725684474304E+18</v>
       </c>
       <c r="B268">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C268">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D268" t="s">
         <v>4</v>
@@ -4240,13 +4243,13 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>-3.698725684474304E+18</v>
+        <v>-3.5328159520245842E+18</v>
       </c>
       <c r="B269">
-        <v>15</v>
+        <v>-14</v>
       </c>
       <c r="C269">
-        <v>14.6</v>
+        <v>29</v>
       </c>
       <c r="D269" t="s">
         <v>4</v>
@@ -4257,10 +4260,10 @@
         <v>-3.5328159520245842E+18</v>
       </c>
       <c r="B270">
-        <v>-14</v>
+        <v>65</v>
       </c>
       <c r="C270">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D270" t="s">
         <v>4</v>
@@ -4271,10 +4274,10 @@
         <v>-3.5328159520245842E+18</v>
       </c>
       <c r="B271">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="C271">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D271" t="s">
         <v>4</v>
@@ -4282,13 +4285,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>-3.5328159520245842E+18</v>
+        <v>8.0810323845348639E+18</v>
       </c>
       <c r="B272">
-        <v>127</v>
+        <v>-19</v>
       </c>
       <c r="C272">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D272" t="s">
         <v>4</v>
@@ -4299,10 +4302,10 @@
         <v>8.0810323845348639E+18</v>
       </c>
       <c r="B273">
-        <v>-19</v>
+        <v>61</v>
       </c>
       <c r="C273">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D273" t="s">
         <v>4</v>
@@ -4313,7 +4316,7 @@
         <v>8.0810323845348639E+18</v>
       </c>
       <c r="B274">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="C274">
         <v>46</v>
@@ -4324,13 +4327,13 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>8.0810323845348639E+18</v>
+        <v>-3.5135764849988828E+18</v>
       </c>
       <c r="B275">
-        <v>134</v>
+        <v>-5</v>
       </c>
       <c r="C275">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D275" t="s">
         <v>4</v>
@@ -4341,10 +4344,10 @@
         <v>-3.5135764849988828E+18</v>
       </c>
       <c r="B276">
-        <v>-5</v>
+        <v>64</v>
       </c>
       <c r="C276">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D276" t="s">
         <v>4</v>
@@ -4355,10 +4358,10 @@
         <v>-3.5135764849988828E+18</v>
       </c>
       <c r="B277">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="C277">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D277" t="s">
         <v>4</v>
@@ -4366,13 +4369,13 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>-3.5135764849988828E+18</v>
+        <v>3.5171753575612191E+18</v>
       </c>
       <c r="B278">
-        <v>127</v>
+        <v>-13</v>
       </c>
       <c r="C278">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D278" t="s">
         <v>4</v>
@@ -4383,10 +4386,10 @@
         <v>3.5171753575612191E+18</v>
       </c>
       <c r="B279">
-        <v>-13</v>
+        <v>63</v>
       </c>
       <c r="C279">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D279" t="s">
         <v>4</v>
@@ -4397,10 +4400,10 @@
         <v>3.5171753575612191E+18</v>
       </c>
       <c r="B280">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="C280">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D280" t="s">
         <v>4</v>
@@ -4411,7 +4414,7 @@
         <v>3.5171753575612191E+18</v>
       </c>
       <c r="B281">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="C281">
         <v>43</v>
@@ -4422,13 +4425,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>3.5171753575612191E+18</v>
+        <v>7.0479277735885056E+17</v>
       </c>
       <c r="B282">
-        <v>191</v>
+        <v>-10</v>
       </c>
       <c r="C282">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D282" t="s">
         <v>4</v>
@@ -4439,10 +4442,10 @@
         <v>7.0479277735885056E+17</v>
       </c>
       <c r="B283">
-        <v>-10</v>
+        <v>64</v>
       </c>
       <c r="C283">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D283" t="s">
         <v>4</v>
@@ -4453,10 +4456,10 @@
         <v>7.0479277735885056E+17</v>
       </c>
       <c r="B284">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="C284">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D284" t="s">
         <v>4</v>
@@ -4464,13 +4467,13 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>7.0479277735885056E+17</v>
+        <v>-7.5091236508088095E+18</v>
       </c>
       <c r="B285">
-        <v>127</v>
+        <v>-15</v>
       </c>
       <c r="C285">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D285" t="s">
         <v>4</v>
@@ -4481,10 +4484,10 @@
         <v>-7.5091236508088095E+18</v>
       </c>
       <c r="B286">
-        <v>-15</v>
+        <v>64</v>
       </c>
       <c r="C286">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D286" t="s">
         <v>4</v>
@@ -4495,10 +4498,10 @@
         <v>-7.5091236508088095E+18</v>
       </c>
       <c r="B287">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="C287">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D287" t="s">
         <v>4</v>
@@ -4506,13 +4509,13 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>-7.5091236508088095E+18</v>
+        <v>7.5900806215465155E+18</v>
       </c>
       <c r="B288">
-        <v>148</v>
+        <v>-25</v>
       </c>
       <c r="C288">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D288" t="s">
         <v>4</v>
@@ -4523,10 +4526,10 @@
         <v>7.5900806215465155E+18</v>
       </c>
       <c r="B289">
-        <v>-25</v>
+        <v>63</v>
       </c>
       <c r="C289">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D289" t="s">
         <v>4</v>
@@ -4537,10 +4540,10 @@
         <v>7.5900806215465155E+18</v>
       </c>
       <c r="B290">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="C290">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D290" t="s">
         <v>4</v>
@@ -4551,10 +4554,10 @@
         <v>7.5900806215465155E+18</v>
       </c>
       <c r="B291">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="C291">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D291" t="s">
         <v>4</v>
@@ -4565,10 +4568,10 @@
         <v>7.5900806215465155E+18</v>
       </c>
       <c r="B292">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="C292">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D292" t="s">
         <v>4</v>
@@ -4579,10 +4582,10 @@
         <v>7.5900806215465155E+18</v>
       </c>
       <c r="B293">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="C293">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D293" t="s">
         <v>4</v>
@@ -4593,7 +4596,7 @@
         <v>7.5900806215465155E+18</v>
       </c>
       <c r="B294">
-        <v>303</v>
+        <v>374</v>
       </c>
       <c r="C294">
         <v>20</v>
@@ -4607,10 +4610,10 @@
         <v>7.5900806215465155E+18</v>
       </c>
       <c r="B295">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="C295">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D295" t="s">
         <v>4</v>
@@ -4621,10 +4624,10 @@
         <v>7.5900806215465155E+18</v>
       </c>
       <c r="B296">
-        <v>456</v>
+        <v>541</v>
       </c>
       <c r="C296">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D296" t="s">
         <v>4</v>
@@ -4635,10 +4638,10 @@
         <v>7.5900806215465155E+18</v>
       </c>
       <c r="B297">
-        <v>541</v>
+        <v>625</v>
       </c>
       <c r="C297">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D297" t="s">
         <v>4</v>
@@ -4649,10 +4652,10 @@
         <v>7.5900806215465155E+18</v>
       </c>
       <c r="B298">
-        <v>625</v>
+        <v>718</v>
       </c>
       <c r="C298">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D298" t="s">
         <v>4</v>
@@ -4660,13 +4663,13 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>7.5900806215465155E+18</v>
+        <v>4.4627449743095711E+18</v>
       </c>
       <c r="B299">
-        <v>718</v>
+        <v>-24</v>
       </c>
       <c r="C299">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D299" t="s">
         <v>4</v>
@@ -4677,10 +4680,10 @@
         <v>4.4627449743095711E+18</v>
       </c>
       <c r="B300">
-        <v>-24</v>
+        <v>63</v>
       </c>
       <c r="C300">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D300" t="s">
         <v>4</v>
@@ -4691,7 +4694,7 @@
         <v>4.4627449743095711E+18</v>
       </c>
       <c r="B301">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="C301">
         <v>11</v>
@@ -4705,10 +4708,10 @@
         <v>4.4627449743095711E+18</v>
       </c>
       <c r="B302">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="C302">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D302" t="s">
         <v>4</v>
@@ -4719,7 +4722,7 @@
         <v>4.4627449743095711E+18</v>
       </c>
       <c r="B303">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c r="C303">
         <v>10</v>
@@ -4733,10 +4736,10 @@
         <v>4.4627449743095711E+18</v>
       </c>
       <c r="B304">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="C304">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D304" t="s">
         <v>4</v>
@@ -4747,7 +4750,7 @@
         <v>4.4627449743095711E+18</v>
       </c>
       <c r="B305">
-        <v>312</v>
+        <v>372</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -4761,7 +4764,7 @@
         <v>4.4627449743095711E+18</v>
       </c>
       <c r="B306">
-        <v>372</v>
+        <v>473</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -4775,7 +4778,7 @@
         <v>4.4627449743095711E+18</v>
       </c>
       <c r="B307">
-        <v>473</v>
+        <v>565</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -4789,7 +4792,7 @@
         <v>4.4627449743095711E+18</v>
       </c>
       <c r="B308">
-        <v>565</v>
+        <v>648</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -4800,13 +4803,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>4.4627449743095711E+18</v>
+        <v>3.67760027078385E+18</v>
       </c>
       <c r="B309">
-        <v>648</v>
+        <v>-6</v>
       </c>
       <c r="C309">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D309" t="s">
         <v>4</v>
@@ -4817,10 +4820,10 @@
         <v>3.67760027078385E+18</v>
       </c>
       <c r="B310">
-        <v>-6</v>
+        <v>52</v>
       </c>
       <c r="C310">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D310" t="s">
         <v>4</v>
@@ -4831,10 +4834,10 @@
         <v>3.67760027078385E+18</v>
       </c>
       <c r="B311">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C311">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D311" t="s">
         <v>4</v>
@@ -4842,13 +4845,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>3.67760027078385E+18</v>
+        <v>4.4286810302387072E+18</v>
       </c>
       <c r="B312">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="C312">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D312" t="s">
         <v>4</v>
@@ -4859,10 +4862,10 @@
         <v>4.4286810302387072E+18</v>
       </c>
       <c r="B313">
-        <v>-25</v>
+        <v>63</v>
       </c>
       <c r="C313">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D313" t="s">
         <v>4</v>
@@ -4873,10 +4876,10 @@
         <v>4.4286810302387072E+18</v>
       </c>
       <c r="B314">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C314">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D314" t="s">
         <v>4</v>
@@ -4884,13 +4887,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>4.4286810302387072E+18</v>
+        <v>-1.069242274734117E+18</v>
       </c>
       <c r="B315">
-        <v>126</v>
+        <v>-1</v>
       </c>
       <c r="C315">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D315" t="s">
         <v>4</v>
@@ -4901,10 +4904,10 @@
         <v>-1.069242274734117E+18</v>
       </c>
       <c r="B316">
-        <v>-1</v>
+        <v>60</v>
       </c>
       <c r="C316">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D316" t="s">
         <v>4</v>
@@ -4915,7 +4918,7 @@
         <v>-1.069242274734117E+18</v>
       </c>
       <c r="B317">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="C317">
         <v>20</v>
@@ -4929,10 +4932,10 @@
         <v>-1.069242274734117E+18</v>
       </c>
       <c r="B318">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="C318">
-        <v>20</v>
+        <v>21.6</v>
       </c>
       <c r="D318" t="s">
         <v>4</v>
@@ -4943,10 +4946,10 @@
         <v>-1.069242274734117E+18</v>
       </c>
       <c r="B319">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="C319">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="D319" t="s">
         <v>4</v>
@@ -4957,10 +4960,10 @@
         <v>-1.069242274734117E+18</v>
       </c>
       <c r="B320">
-        <v>248</v>
+        <v>311</v>
       </c>
       <c r="C320">
-        <v>21.4</v>
+        <v>17</v>
       </c>
       <c r="D320" t="s">
         <v>4</v>
@@ -4971,10 +4974,10 @@
         <v>-1.069242274734117E+18</v>
       </c>
       <c r="B321">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="C321">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D321" t="s">
         <v>4</v>
@@ -4985,10 +4988,10 @@
         <v>-1.069242274734117E+18</v>
       </c>
       <c r="B322">
-        <v>378</v>
+        <v>459</v>
       </c>
       <c r="C322">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="D322" t="s">
         <v>4</v>
@@ -4999,10 +5002,10 @@
         <v>-1.069242274734117E+18</v>
       </c>
       <c r="B323">
-        <v>459</v>
-      </c>
-      <c r="C323">
-        <v>17.5</v>
+        <v>515</v>
+      </c>
+      <c r="C323" t="s">
+        <v>5</v>
       </c>
       <c r="D323" t="s">
         <v>4</v>
@@ -5010,13 +5013,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>-1.069242274734117E+18</v>
+        <v>8.2524656915603046E+18</v>
       </c>
       <c r="B324">
-        <v>515</v>
-      </c>
-      <c r="C324" t="s">
-        <v>5</v>
+        <v>-8</v>
+      </c>
+      <c r="C324">
+        <v>34</v>
       </c>
       <c r="D324" t="s">
         <v>4</v>
@@ -5027,10 +5030,10 @@
         <v>8.2524656915603046E+18</v>
       </c>
       <c r="B325">
-        <v>-8</v>
+        <v>71</v>
       </c>
       <c r="C325">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D325" t="s">
         <v>4</v>
@@ -5041,10 +5044,10 @@
         <v>8.2524656915603046E+18</v>
       </c>
       <c r="B326">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="C326">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D326" t="s">
         <v>4</v>
@@ -5055,7 +5058,7 @@
         <v>8.2524656915603046E+18</v>
       </c>
       <c r="B327">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="C327">
         <v>38</v>
@@ -5069,10 +5072,10 @@
         <v>8.2524656915603046E+18</v>
       </c>
       <c r="B328">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="C328">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D328" t="s">
         <v>4</v>
@@ -5080,13 +5083,13 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>8.2524656915603046E+18</v>
+        <v>-2.2468840556814531E+17</v>
       </c>
       <c r="B329">
-        <v>264</v>
+        <v>-4</v>
       </c>
       <c r="C329">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D329" t="s">
         <v>4</v>
@@ -5097,7 +5100,7 @@
         <v>-2.2468840556814531E+17</v>
       </c>
       <c r="B330">
-        <v>-4</v>
+        <v>63</v>
       </c>
       <c r="C330">
         <v>47</v>
@@ -5111,7 +5114,7 @@
         <v>-2.2468840556814531E+17</v>
       </c>
       <c r="B331">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="C331">
         <v>47</v>
@@ -5125,7 +5128,7 @@
         <v>-2.2468840556814531E+17</v>
       </c>
       <c r="B332">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c r="C332">
         <v>47</v>
@@ -5139,10 +5142,10 @@
         <v>-2.2468840556814531E+17</v>
       </c>
       <c r="B333">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="C333">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D333" t="s">
         <v>4</v>
@@ -5150,13 +5153,13 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>-2.2468840556814531E+17</v>
+        <v>5.2387253810859244E+18</v>
       </c>
       <c r="B334">
-        <v>266</v>
+        <v>-3</v>
       </c>
       <c r="C334">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D334" t="s">
         <v>4</v>
@@ -5167,10 +5170,10 @@
         <v>5.2387253810859244E+18</v>
       </c>
       <c r="B335">
-        <v>-3</v>
+        <v>56</v>
       </c>
       <c r="C335">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D335" t="s">
         <v>4</v>
@@ -5181,10 +5184,10 @@
         <v>5.2387253810859244E+18</v>
       </c>
       <c r="B336">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="C336">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D336" t="s">
         <v>4</v>
@@ -5195,10 +5198,10 @@
         <v>5.2387253810859244E+18</v>
       </c>
       <c r="B337">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="C337">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D337" t="s">
         <v>4</v>
@@ -5209,10 +5212,10 @@
         <v>5.2387253810859244E+18</v>
       </c>
       <c r="B338">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="C338">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D338" t="s">
         <v>4</v>
@@ -5220,13 +5223,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>5.2387253810859244E+18</v>
+        <v>5.9404860482749829E+18</v>
       </c>
       <c r="B339">
-        <v>215</v>
+        <v>-26</v>
       </c>
       <c r="C339">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D339" t="s">
         <v>4</v>
@@ -5237,10 +5240,10 @@
         <v>5.9404860482749829E+18</v>
       </c>
       <c r="B340">
-        <v>-26</v>
+        <v>64</v>
       </c>
       <c r="C340">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D340" t="s">
         <v>4</v>
@@ -5251,10 +5254,10 @@
         <v>5.9404860482749829E+18</v>
       </c>
       <c r="B341">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="C341">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D341" t="s">
         <v>4</v>
@@ -5262,13 +5265,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>5.9404860482749829E+18</v>
+        <v>-6.5186980512178975E+18</v>
       </c>
       <c r="B342">
-        <v>127</v>
+        <v>-14</v>
       </c>
       <c r="C342">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D342" t="s">
         <v>4</v>
@@ -5279,10 +5282,10 @@
         <v>-6.5186980512178975E+18</v>
       </c>
       <c r="B343">
-        <v>-14</v>
+        <v>62</v>
       </c>
       <c r="C343">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D343" t="s">
         <v>4</v>
@@ -5293,10 +5296,10 @@
         <v>-6.5186980512178975E+18</v>
       </c>
       <c r="B344">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C344">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D344" t="s">
         <v>4</v>
@@ -5307,7 +5310,7 @@
         <v>-6.5186980512178975E+18</v>
       </c>
       <c r="B345">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="C345">
         <v>34</v>
@@ -5318,13 +5321,13 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>-6.5186980512178975E+18</v>
+        <v>-7.1679597384658565E+18</v>
       </c>
       <c r="B346">
-        <v>92</v>
+        <v>-18</v>
       </c>
       <c r="C346">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D346" t="s">
         <v>4</v>
@@ -5335,10 +5338,10 @@
         <v>-7.1679597384658565E+18</v>
       </c>
       <c r="B347">
-        <v>-18</v>
+        <v>68</v>
       </c>
       <c r="C347">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D347" t="s">
         <v>4</v>
@@ -5349,10 +5352,10 @@
         <v>-7.1679597384658565E+18</v>
       </c>
       <c r="B348">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="C348">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D348" t="s">
         <v>4</v>
@@ -5363,10 +5366,10 @@
         <v>-7.1679597384658565E+18</v>
       </c>
       <c r="B349">
-        <v>124</v>
-      </c>
-      <c r="C349">
-        <v>15</v>
+        <v>189</v>
+      </c>
+      <c r="C349" t="s">
+        <v>6</v>
       </c>
       <c r="D349" t="s">
         <v>4</v>
@@ -5377,10 +5380,10 @@
         <v>-7.1679597384658565E+18</v>
       </c>
       <c r="B350">
-        <v>189</v>
-      </c>
-      <c r="C350" t="s">
-        <v>6</v>
+        <v>252</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
       </c>
       <c r="D350" t="s">
         <v>4</v>
@@ -5391,7 +5394,7 @@
         <v>-7.1679597384658565E+18</v>
       </c>
       <c r="B351">
-        <v>252</v>
+        <v>315</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -5405,7 +5408,7 @@
         <v>-7.1679597384658565E+18</v>
       </c>
       <c r="B352">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -5419,7 +5422,7 @@
         <v>-7.1679597384658565E+18</v>
       </c>
       <c r="B353">
-        <v>378</v>
+        <v>462</v>
       </c>
       <c r="C353">
         <v>0</v>
@@ -5430,13 +5433,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>-7.1679597384658565E+18</v>
+        <v>-4.3946823793414241E+18</v>
       </c>
       <c r="B354">
-        <v>462</v>
+        <v>-7</v>
       </c>
       <c r="C354">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D354" t="s">
         <v>4</v>
@@ -5447,10 +5450,10 @@
         <v>-4.3946823793414241E+18</v>
       </c>
       <c r="B355">
-        <v>-7</v>
+        <v>62</v>
       </c>
       <c r="C355">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D355" t="s">
         <v>4</v>
@@ -5461,10 +5464,10 @@
         <v>-4.3946823793414241E+18</v>
       </c>
       <c r="B356">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C356">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D356" t="s">
         <v>4</v>
@@ -5475,10 +5478,10 @@
         <v>-4.3946823793414241E+18</v>
       </c>
       <c r="B357">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="C357">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D357" t="s">
         <v>4</v>
@@ -5486,13 +5489,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>-4.3946823793414241E+18</v>
+        <v>7.6444442495148831E+18</v>
       </c>
       <c r="B358">
-        <v>187</v>
+        <v>-1</v>
       </c>
       <c r="C358">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D358" t="s">
         <v>4</v>
@@ -5503,10 +5506,10 @@
         <v>7.6444442495148831E+18</v>
       </c>
       <c r="B359">
-        <v>-1</v>
+        <v>63</v>
       </c>
       <c r="C359">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D359" t="s">
         <v>4</v>
@@ -5517,10 +5520,10 @@
         <v>7.6444442495148831E+18</v>
       </c>
       <c r="B360">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="C360">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D360" t="s">
         <v>4</v>
@@ -5531,10 +5534,10 @@
         <v>7.6444442495148831E+18</v>
       </c>
       <c r="B361">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="C361">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D361" t="s">
         <v>4</v>
@@ -5542,13 +5545,13 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>7.6444442495148831E+18</v>
+        <v>1.4775407966450541E+17</v>
       </c>
       <c r="B362">
-        <v>189</v>
+        <v>-13</v>
       </c>
       <c r="C362">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D362" t="s">
         <v>4</v>
@@ -5559,10 +5562,10 @@
         <v>1.4775407966450541E+17</v>
       </c>
       <c r="B363">
-        <v>-13</v>
+        <v>67</v>
       </c>
       <c r="C363">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D363" t="s">
         <v>4</v>
@@ -5573,10 +5576,10 @@
         <v>1.4775407966450541E+17</v>
       </c>
       <c r="B364">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="C364">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D364" t="s">
         <v>4</v>
@@ -5584,13 +5587,13 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>1.4775407966450541E+17</v>
+        <v>1.11713720054582E+18</v>
       </c>
       <c r="B365">
-        <v>121</v>
+        <v>-7</v>
       </c>
       <c r="C365">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D365" t="s">
         <v>4</v>
@@ -5601,10 +5604,10 @@
         <v>1.11713720054582E+18</v>
       </c>
       <c r="B366">
-        <v>-7</v>
+        <v>64</v>
       </c>
       <c r="C366">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D366" t="s">
         <v>4</v>
@@ -5615,10 +5618,10 @@
         <v>1.11713720054582E+18</v>
       </c>
       <c r="B367">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="C367">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D367" t="s">
         <v>4</v>
@@ -5629,10 +5632,10 @@
         <v>1.11713720054582E+18</v>
       </c>
       <c r="B368">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="C368">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D368" t="s">
         <v>4</v>
@@ -5643,10 +5646,10 @@
         <v>1.11713720054582E+18</v>
       </c>
       <c r="B369">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="C369">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D369" t="s">
         <v>4</v>
@@ -5657,10 +5660,10 @@
         <v>1.11713720054582E+18</v>
       </c>
       <c r="B370">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="C370">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D370" t="s">
         <v>4</v>
@@ -5671,10 +5674,10 @@
         <v>1.11713720054582E+18</v>
       </c>
       <c r="B371">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="C371">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D371" t="s">
         <v>4</v>
@@ -5682,13 +5685,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>1.11713720054582E+18</v>
+        <v>1.181911090295873E+18</v>
       </c>
       <c r="B372">
-        <v>365</v>
+        <v>-4</v>
       </c>
       <c r="C372">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D372" t="s">
         <v>4</v>
@@ -5699,7 +5702,7 @@
         <v>1.181911090295873E+18</v>
       </c>
       <c r="B373">
-        <v>-4</v>
+        <v>65</v>
       </c>
       <c r="C373">
         <v>14</v>
@@ -5713,10 +5716,10 @@
         <v>1.181911090295873E+18</v>
       </c>
       <c r="B374">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="C374">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D374" t="s">
         <v>4</v>
@@ -5727,10 +5730,10 @@
         <v>1.181911090295873E+18</v>
       </c>
       <c r="B375">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="C375">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D375" t="s">
         <v>4</v>
@@ -5741,10 +5744,10 @@
         <v>1.181911090295873E+18</v>
       </c>
       <c r="B376">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="C376">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D376" t="s">
         <v>4</v>
@@ -5755,10 +5758,10 @@
         <v>1.181911090295873E+18</v>
       </c>
       <c r="B377">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="C377">
-        <v>18</v>
+        <v>26.5</v>
       </c>
       <c r="D377" t="s">
         <v>4</v>
@@ -5766,13 +5769,13 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>1.181911090295873E+18</v>
+        <v>-6.0125658004885002E+18</v>
       </c>
       <c r="B378">
-        <v>317</v>
+        <v>-6</v>
       </c>
       <c r="C378">
-        <v>26.5</v>
+        <v>82</v>
       </c>
       <c r="D378" t="s">
         <v>4</v>
@@ -5783,10 +5786,10 @@
         <v>-6.0125658004885002E+18</v>
       </c>
       <c r="B379">
-        <v>-6</v>
+        <v>63</v>
       </c>
       <c r="C379">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D379" t="s">
         <v>4</v>
@@ -5797,10 +5800,10 @@
         <v>-6.0125658004885002E+18</v>
       </c>
       <c r="B380">
+        <v>122</v>
+      </c>
+      <c r="C380">
         <v>63</v>
-      </c>
-      <c r="C380">
-        <v>62</v>
       </c>
       <c r="D380" t="s">
         <v>4</v>
@@ -5811,10 +5814,10 @@
         <v>-6.0125658004885002E+18</v>
       </c>
       <c r="B381">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="C381">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D381" t="s">
         <v>4</v>
@@ -5822,13 +5825,13 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>-6.0125658004885002E+18</v>
+        <v>5.9024793448678646E+18</v>
       </c>
       <c r="B382">
-        <v>184</v>
+        <v>-14</v>
       </c>
       <c r="C382">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D382" t="s">
         <v>4</v>
@@ -5839,10 +5842,10 @@
         <v>5.9024793448678646E+18</v>
       </c>
       <c r="B383">
-        <v>-14</v>
+        <v>61</v>
       </c>
       <c r="C383">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D383" t="s">
         <v>4</v>
@@ -5853,10 +5856,10 @@
         <v>5.9024793448678646E+18</v>
       </c>
       <c r="B384">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="C384">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D384" t="s">
         <v>4</v>
@@ -5867,10 +5870,10 @@
         <v>5.9024793448678646E+18</v>
       </c>
       <c r="B385">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C385">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D385" t="s">
         <v>4</v>
@@ -5878,13 +5881,13 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>5.9024793448678646E+18</v>
+        <v>4.2020498774131159E+18</v>
       </c>
       <c r="B386">
-        <v>92</v>
+        <v>-21</v>
       </c>
       <c r="C386">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D386" t="s">
         <v>4</v>
@@ -5895,10 +5898,10 @@
         <v>4.2020498774131159E+18</v>
       </c>
       <c r="B387">
-        <v>-21</v>
+        <v>62</v>
       </c>
       <c r="C387">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D387" t="s">
         <v>4</v>
@@ -5909,10 +5912,10 @@
         <v>4.2020498774131159E+18</v>
       </c>
       <c r="B388">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="C388">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D388" t="s">
         <v>4</v>
@@ -5923,10 +5926,10 @@
         <v>4.2020498774131159E+18</v>
       </c>
       <c r="B389">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="C389">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D389" t="s">
         <v>4</v>
@@ -5937,10 +5940,10 @@
         <v>4.2020498774131159E+18</v>
       </c>
       <c r="B390">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="C390">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D390" t="s">
         <v>4</v>
@@ -5951,10 +5954,10 @@
         <v>4.2020498774131159E+18</v>
       </c>
       <c r="B391">
-        <v>247</v>
+        <v>310</v>
       </c>
       <c r="C391">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="D391" t="s">
         <v>4</v>
@@ -5965,10 +5968,10 @@
         <v>4.2020498774131159E+18</v>
       </c>
       <c r="B392">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="C392">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="D392" t="s">
         <v>4</v>
@@ -5976,13 +5979,13 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>4.2020498774131159E+18</v>
+        <v>2.855426508906754E+18</v>
       </c>
       <c r="B393">
-        <v>380</v>
+        <v>-17</v>
       </c>
       <c r="C393">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="D393" t="s">
         <v>4</v>
@@ -5993,10 +5996,10 @@
         <v>2.855426508906754E+18</v>
       </c>
       <c r="B394">
-        <v>-17</v>
+        <v>57</v>
       </c>
       <c r="C394">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D394" t="s">
         <v>4</v>
@@ -6007,7 +6010,7 @@
         <v>2.855426508906754E+18</v>
       </c>
       <c r="B395">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="C395">
         <v>0</v>
@@ -6021,7 +6024,7 @@
         <v>2.855426508906754E+18</v>
       </c>
       <c r="B396">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="C396">
         <v>0</v>
@@ -6035,7 +6038,7 @@
         <v>2.855426508906754E+18</v>
       </c>
       <c r="B397">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="C397">
         <v>0</v>
@@ -6049,7 +6052,7 @@
         <v>2.855426508906754E+18</v>
       </c>
       <c r="B398">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="C398">
         <v>0</v>
@@ -6063,7 +6066,7 @@
         <v>2.855426508906754E+18</v>
       </c>
       <c r="B399">
-        <v>313</v>
+        <v>397</v>
       </c>
       <c r="C399">
         <v>0</v>
@@ -6077,7 +6080,7 @@
         <v>2.855426508906754E+18</v>
       </c>
       <c r="B400">
-        <v>397</v>
+        <v>481</v>
       </c>
       <c r="C400">
         <v>0</v>
@@ -6091,7 +6094,7 @@
         <v>2.855426508906754E+18</v>
       </c>
       <c r="B401">
-        <v>481</v>
+        <v>561</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -6102,13 +6105,13 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>2.855426508906754E+18</v>
+        <v>5.550738411458944E+18</v>
       </c>
       <c r="B402">
-        <v>561</v>
+        <v>-15</v>
       </c>
       <c r="C402">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D402" t="s">
         <v>4</v>
@@ -6119,10 +6122,10 @@
         <v>5.550738411458944E+18</v>
       </c>
       <c r="B403">
-        <v>-15</v>
+        <v>64</v>
       </c>
       <c r="C403">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D403" t="s">
         <v>4</v>
@@ -6133,10 +6136,10 @@
         <v>5.550738411458944E+18</v>
       </c>
       <c r="B404">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="C404">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D404" t="s">
         <v>4</v>
@@ -6147,10 +6150,10 @@
         <v>5.550738411458944E+18</v>
       </c>
       <c r="B405">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="C405">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D405" t="s">
         <v>4</v>
@@ -6161,10 +6164,10 @@
         <v>5.550738411458944E+18</v>
       </c>
       <c r="B406">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="C406">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D406" t="s">
         <v>4</v>
@@ -6175,10 +6178,10 @@
         <v>5.550738411458944E+18</v>
       </c>
       <c r="B407">
-        <v>251</v>
+        <v>315</v>
       </c>
       <c r="C407">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D407" t="s">
         <v>4</v>
@@ -6189,10 +6192,10 @@
         <v>5.550738411458944E+18</v>
       </c>
       <c r="B408">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="C408">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D408" t="s">
         <v>4</v>
@@ -6200,13 +6203,13 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>5.550738411458944E+18</v>
+        <v>-8.8326001809253888E+18</v>
       </c>
       <c r="B409">
-        <v>378</v>
+        <v>-18</v>
       </c>
       <c r="C409">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D409" t="s">
         <v>4</v>
@@ -6217,10 +6220,10 @@
         <v>-8.8326001809253888E+18</v>
       </c>
       <c r="B410">
-        <v>-18</v>
+        <v>66</v>
       </c>
       <c r="C410">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D410" t="s">
         <v>4</v>
@@ -6231,10 +6234,10 @@
         <v>-8.8326001809253888E+18</v>
       </c>
       <c r="B411">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C411">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D411" t="s">
         <v>4</v>
@@ -6242,13 +6245,13 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>-8.8326001809253888E+18</v>
+        <v>-5.4783064578287872E+18</v>
       </c>
       <c r="B412">
-        <v>9</v>
+        <v>-6</v>
       </c>
       <c r="C412">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D412" t="s">
         <v>4</v>
@@ -6259,10 +6262,10 @@
         <v>-5.4783064578287872E+18</v>
       </c>
       <c r="B413">
-        <v>-6</v>
+        <v>59</v>
       </c>
       <c r="C413">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D413" t="s">
         <v>4</v>
@@ -6273,7 +6276,7 @@
         <v>-5.4783064578287872E+18</v>
       </c>
       <c r="B414">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="C414">
         <v>25</v>
@@ -6287,10 +6290,10 @@
         <v>-5.4783064578287872E+18</v>
       </c>
       <c r="B415">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="C415">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D415" t="s">
         <v>4</v>
@@ -6301,7 +6304,7 @@
         <v>-5.4783064578287872E+18</v>
       </c>
       <c r="B416">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="C416">
         <v>26</v>
@@ -6315,10 +6318,10 @@
         <v>-5.4783064578287872E+18</v>
       </c>
       <c r="B417">
-        <v>248</v>
+        <v>311</v>
       </c>
       <c r="C417">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D417" t="s">
         <v>4</v>
@@ -6329,10 +6332,10 @@
         <v>-5.4783064578287872E+18</v>
       </c>
       <c r="B418">
-        <v>311</v>
+        <v>374</v>
       </c>
       <c r="C418">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D418" t="s">
         <v>4</v>
@@ -6343,10 +6346,10 @@
         <v>-5.4783064578287872E+18</v>
       </c>
       <c r="B419">
-        <v>374</v>
+        <v>458</v>
       </c>
       <c r="C419">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D419" t="s">
         <v>4</v>
@@ -6357,10 +6360,10 @@
         <v>-5.4783064578287872E+18</v>
       </c>
       <c r="B420">
-        <v>458</v>
+        <v>542</v>
       </c>
       <c r="C420">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D420" t="s">
         <v>4</v>
@@ -6371,10 +6374,10 @@
         <v>-5.4783064578287872E+18</v>
       </c>
       <c r="B421">
-        <v>542</v>
+        <v>626</v>
       </c>
       <c r="C421">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D421" t="s">
         <v>4</v>
@@ -6385,7 +6388,7 @@
         <v>-5.4783064578287872E+18</v>
       </c>
       <c r="B422">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="C422">
         <v>30</v>
@@ -6396,13 +6399,13 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>-5.4783064578287872E+18</v>
+        <v>5.7793983245720819E+17</v>
       </c>
       <c r="B423">
-        <v>710</v>
+        <v>-2</v>
       </c>
       <c r="C423">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D423" t="s">
         <v>4</v>
@@ -6413,10 +6416,10 @@
         <v>5.7793983245720819E+17</v>
       </c>
       <c r="B424">
-        <v>-2</v>
+        <v>58</v>
       </c>
       <c r="C424">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D424" t="s">
         <v>4</v>
@@ -6427,10 +6430,10 @@
         <v>5.7793983245720819E+17</v>
       </c>
       <c r="B425">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="C425">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D425" t="s">
         <v>4</v>
@@ -6438,13 +6441,13 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>5.7793983245720819E+17</v>
+        <v>9.1777760836141036E+18</v>
       </c>
       <c r="B426">
-        <v>126</v>
+        <v>-5</v>
       </c>
       <c r="C426">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D426" t="s">
         <v>4</v>
@@ -6455,10 +6458,10 @@
         <v>9.1777760836141036E+18</v>
       </c>
       <c r="B427">
-        <v>-5</v>
+        <v>62</v>
       </c>
       <c r="C427">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D427" t="s">
         <v>4</v>
@@ -6469,10 +6472,10 @@
         <v>9.1777760836141036E+18</v>
       </c>
       <c r="B428">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C428">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D428" t="s">
         <v>4</v>
@@ -6483,10 +6486,10 @@
         <v>9.1777760836141036E+18</v>
       </c>
       <c r="B429">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="C429">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D429" t="s">
         <v>4</v>
@@ -6497,10 +6500,10 @@
         <v>9.1777760836141036E+18</v>
       </c>
       <c r="B430">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="C430">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D430" t="s">
         <v>4</v>
@@ -6511,10 +6514,10 @@
         <v>9.1777760836141036E+18</v>
       </c>
       <c r="B431">
-        <v>258</v>
+        <v>321</v>
       </c>
       <c r="C431">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D431" t="s">
         <v>4</v>
@@ -6525,10 +6528,10 @@
         <v>9.1777760836141036E+18</v>
       </c>
       <c r="B432">
-        <v>321</v>
+        <v>491</v>
       </c>
       <c r="C432">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D432" t="s">
         <v>4</v>
@@ -6539,10 +6542,10 @@
         <v>9.1777760836141036E+18</v>
       </c>
       <c r="B433">
-        <v>491</v>
+        <v>577</v>
       </c>
       <c r="C433">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D433" t="s">
         <v>4</v>
@@ -6553,7 +6556,7 @@
         <v>9.1777760836141036E+18</v>
       </c>
       <c r="B434">
-        <v>577</v>
+        <v>661</v>
       </c>
       <c r="C434">
         <v>9</v>
@@ -6567,10 +6570,10 @@
         <v>9.1777760836141036E+18</v>
       </c>
       <c r="B435">
-        <v>661</v>
+        <v>745</v>
       </c>
       <c r="C435">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D435" t="s">
         <v>4</v>
@@ -6581,10 +6584,10 @@
         <v>9.1777760836141036E+18</v>
       </c>
       <c r="B436">
-        <v>745</v>
+        <v>451</v>
       </c>
       <c r="C436">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D436" t="s">
         <v>4</v>
@@ -6592,13 +6595,13 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>9.1777760836141036E+18</v>
+        <v>-2.9095172631467249E+18</v>
       </c>
       <c r="B437">
-        <v>451</v>
+        <v>-14</v>
       </c>
       <c r="C437">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D437" t="s">
         <v>4</v>
@@ -6609,10 +6612,10 @@
         <v>-2.9095172631467249E+18</v>
       </c>
       <c r="B438">
-        <v>-14</v>
+        <v>65</v>
       </c>
       <c r="C438">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D438" t="s">
         <v>4</v>
@@ -6623,10 +6626,10 @@
         <v>-2.9095172631467249E+18</v>
       </c>
       <c r="B439">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="C439">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D439" t="s">
         <v>4</v>
@@ -6637,10 +6640,10 @@
         <v>-2.9095172631467249E+18</v>
       </c>
       <c r="B440">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="C440">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D440" t="s">
         <v>4</v>
@@ -6648,13 +6651,13 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>-2.9095172631467249E+18</v>
+        <v>-4.7318489986024079E+18</v>
       </c>
       <c r="B441">
-        <v>192</v>
+        <v>-7</v>
       </c>
       <c r="C441">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D441" t="s">
         <v>4</v>
@@ -6665,10 +6668,10 @@
         <v>-4.7318489986024079E+18</v>
       </c>
       <c r="B442">
-        <v>-7</v>
+        <v>59</v>
       </c>
       <c r="C442">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D442" t="s">
         <v>4</v>
@@ -6679,10 +6682,10 @@
         <v>-4.7318489986024079E+18</v>
       </c>
       <c r="B443">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="C443">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D443" t="s">
         <v>4</v>
@@ -6693,10 +6696,10 @@
         <v>-4.7318489986024079E+18</v>
       </c>
       <c r="B444">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="C444">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D444" t="s">
         <v>4</v>
@@ -6707,7 +6710,7 @@
         <v>-4.7318489986024079E+18</v>
       </c>
       <c r="B445">
-        <v>185</v>
+        <v>252</v>
       </c>
       <c r="C445">
         <v>5</v>
@@ -6721,10 +6724,10 @@
         <v>-4.7318489986024079E+18</v>
       </c>
       <c r="B446">
-        <v>252</v>
+        <v>310</v>
       </c>
       <c r="C446">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D446" t="s">
         <v>4</v>
@@ -6735,7 +6738,7 @@
         <v>-4.7318489986024079E+18</v>
       </c>
       <c r="B447">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="C447">
         <v>39</v>
@@ -6746,13 +6749,13 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>-4.7318489986024079E+18</v>
+        <v>-8.1182273212099725E+17</v>
       </c>
       <c r="B448">
-        <v>353</v>
+        <v>-4</v>
       </c>
       <c r="C448">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D448" t="s">
         <v>4</v>
@@ -6763,10 +6766,10 @@
         <v>-8.1182273212099725E+17</v>
       </c>
       <c r="B449">
-        <v>-4</v>
+        <v>57</v>
       </c>
       <c r="C449">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D449" t="s">
         <v>4</v>
@@ -6777,10 +6780,10 @@
         <v>-8.1182273212099725E+17</v>
       </c>
       <c r="B450">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="C450">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D450" t="s">
         <v>4</v>
@@ -6791,7 +6794,7 @@
         <v>-8.1182273212099725E+17</v>
       </c>
       <c r="B451">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="C451">
         <v>0</v>
@@ -6805,7 +6808,7 @@
         <v>-8.1182273212099725E+17</v>
       </c>
       <c r="B452">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="C452">
         <v>0</v>
@@ -6819,7 +6822,7 @@
         <v>-8.1182273212099725E+17</v>
       </c>
       <c r="B453">
-        <v>254</v>
+        <v>316</v>
       </c>
       <c r="C453">
         <v>0</v>
@@ -6833,7 +6836,7 @@
         <v>-8.1182273212099725E+17</v>
       </c>
       <c r="B454">
-        <v>316</v>
+        <v>403</v>
       </c>
       <c r="C454">
         <v>0</v>
@@ -6847,7 +6850,7 @@
         <v>-8.1182273212099725E+17</v>
       </c>
       <c r="B455">
-        <v>403</v>
+        <v>507</v>
       </c>
       <c r="C455">
         <v>0</v>
@@ -6861,7 +6864,7 @@
         <v>-8.1182273212099725E+17</v>
       </c>
       <c r="B456">
-        <v>507</v>
+        <v>579</v>
       </c>
       <c r="C456">
         <v>0</v>
@@ -6872,13 +6875,13 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>-8.1182273212099725E+17</v>
+        <v>2.299028560486004E+18</v>
       </c>
       <c r="B457">
-        <v>579</v>
+        <v>-27</v>
       </c>
       <c r="C457">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D457" t="s">
         <v>4</v>
@@ -6889,10 +6892,10 @@
         <v>2.299028560486004E+18</v>
       </c>
       <c r="B458">
-        <v>-27</v>
+        <v>57</v>
       </c>
       <c r="C458">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D458" t="s">
         <v>4</v>
@@ -6903,10 +6906,10 @@
         <v>2.299028560486004E+18</v>
       </c>
       <c r="B459">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="C459">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D459" t="s">
         <v>4</v>
@@ -6917,10 +6920,10 @@
         <v>2.299028560486004E+18</v>
       </c>
       <c r="B460">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="C460">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D460" t="s">
         <v>4</v>
@@ -6931,10 +6934,10 @@
         <v>2.299028560486004E+18</v>
       </c>
       <c r="B461">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="C461">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D461" t="s">
         <v>4</v>
@@ -6945,7 +6948,7 @@
         <v>2.299028560486004E+18</v>
       </c>
       <c r="B462">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="C462">
         <v>34</v>
@@ -6959,10 +6962,10 @@
         <v>2.299028560486004E+18</v>
       </c>
       <c r="B463">
-        <v>308</v>
+        <v>399</v>
       </c>
       <c r="C463">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D463" t="s">
         <v>4</v>
@@ -6970,13 +6973,13 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>2.299028560486004E+18</v>
+        <v>7.9585171684595579E+18</v>
       </c>
       <c r="B464">
-        <v>399</v>
+        <v>-12</v>
       </c>
       <c r="C464">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D464" t="s">
         <v>4</v>
@@ -6987,10 +6990,10 @@
         <v>7.9585171684595579E+18</v>
       </c>
       <c r="B465">
-        <v>-12</v>
+        <v>64</v>
       </c>
       <c r="C465">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D465" t="s">
         <v>4</v>
@@ -7001,7 +7004,7 @@
         <v>7.9585171684595579E+18</v>
       </c>
       <c r="B466">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="C466">
         <v>0</v>
@@ -7015,7 +7018,7 @@
         <v>7.9585171684595579E+18</v>
       </c>
       <c r="B467">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="C467">
         <v>0</v>
@@ -7029,7 +7032,7 @@
         <v>7.9585171684595579E+18</v>
       </c>
       <c r="B468">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="C468">
         <v>0</v>
@@ -7043,7 +7046,7 @@
         <v>7.9585171684595579E+18</v>
       </c>
       <c r="B469">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="C469">
         <v>0</v>
@@ -7057,7 +7060,7 @@
         <v>7.9585171684595579E+18</v>
       </c>
       <c r="B470">
-        <v>312</v>
+        <v>385</v>
       </c>
       <c r="C470">
         <v>0</v>
@@ -7071,7 +7074,7 @@
         <v>7.9585171684595579E+18</v>
       </c>
       <c r="B471">
-        <v>385</v>
+        <v>463</v>
       </c>
       <c r="C471">
         <v>0</v>
@@ -7085,7 +7088,7 @@
         <v>7.9585171684595579E+18</v>
       </c>
       <c r="B472">
-        <v>463</v>
+        <v>540</v>
       </c>
       <c r="C472">
         <v>0</v>
@@ -7099,7 +7102,7 @@
         <v>7.9585171684595579E+18</v>
       </c>
       <c r="B473">
-        <v>540</v>
+        <v>624</v>
       </c>
       <c r="C473">
         <v>0</v>
@@ -7113,7 +7116,7 @@
         <v>7.9585171684595579E+18</v>
       </c>
       <c r="B474">
-        <v>624</v>
+        <v>701</v>
       </c>
       <c r="C474">
         <v>0</v>
@@ -7124,13 +7127,13 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>7.9585171684595579E+18</v>
+        <v>7.6681415480041411E+18</v>
       </c>
       <c r="B475">
-        <v>701</v>
+        <v>-2</v>
       </c>
       <c r="C475">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D475" t="s">
         <v>4</v>
@@ -7141,10 +7144,10 @@
         <v>7.6681415480041411E+18</v>
       </c>
       <c r="B476">
-        <v>-2</v>
+        <v>62</v>
       </c>
       <c r="C476">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D476" t="s">
         <v>4</v>
@@ -7155,7 +7158,7 @@
         <v>7.6681415480041411E+18</v>
       </c>
       <c r="B477">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C477">
         <v>0</v>
@@ -7169,7 +7172,7 @@
         <v>7.6681415480041411E+18</v>
       </c>
       <c r="B478">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="C478">
         <v>0</v>
@@ -7183,7 +7186,7 @@
         <v>7.6681415480041411E+18</v>
       </c>
       <c r="B479">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="C479">
         <v>0</v>
@@ -7197,7 +7200,7 @@
         <v>7.6681415480041411E+18</v>
       </c>
       <c r="B480">
-        <v>256</v>
+        <v>313</v>
       </c>
       <c r="C480">
         <v>0</v>
@@ -7211,7 +7214,7 @@
         <v>7.6681415480041411E+18</v>
       </c>
       <c r="B481">
-        <v>313</v>
+        <v>397</v>
       </c>
       <c r="C481">
         <v>0</v>
@@ -7225,7 +7228,7 @@
         <v>7.6681415480041411E+18</v>
       </c>
       <c r="B482">
-        <v>397</v>
+        <v>524</v>
       </c>
       <c r="C482">
         <v>0</v>
@@ -7239,7 +7242,7 @@
         <v>7.6681415480041411E+18</v>
       </c>
       <c r="B483">
-        <v>524</v>
+        <v>482</v>
       </c>
       <c r="C483">
         <v>0</v>
@@ -7250,13 +7253,13 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>7.6681415480041411E+18</v>
+        <v>-9.0438462826639145E+18</v>
       </c>
       <c r="B484">
-        <v>482</v>
+        <v>-8</v>
       </c>
       <c r="C484">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D484" t="s">
         <v>4</v>
@@ -7267,10 +7270,10 @@
         <v>-9.0438462826639145E+18</v>
       </c>
       <c r="B485">
-        <v>-8</v>
+        <v>37</v>
       </c>
       <c r="C485">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D485" t="s">
         <v>4</v>
@@ -7292,13 +7295,13 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>-9.0438462826639145E+18</v>
+        <v>5.7516792233291428E+18</v>
       </c>
       <c r="B487">
-        <v>37</v>
+        <v>-20</v>
       </c>
       <c r="C487">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D487" t="s">
         <v>4</v>
@@ -7309,10 +7312,10 @@
         <v>5.7516792233291428E+18</v>
       </c>
       <c r="B488">
-        <v>-20</v>
+        <v>63</v>
       </c>
       <c r="C488">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D488" t="s">
         <v>4</v>
@@ -7323,10 +7326,10 @@
         <v>5.7516792233291428E+18</v>
       </c>
       <c r="B489">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="C489">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D489" t="s">
         <v>4</v>
@@ -7334,13 +7337,13 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>5.7516792233291428E+18</v>
+        <v>-4.0661638902453801E+18</v>
       </c>
       <c r="B490">
-        <v>124</v>
+        <v>-26</v>
       </c>
       <c r="C490">
-        <v>19</v>
+        <v>11.4</v>
       </c>
       <c r="D490" t="s">
         <v>4</v>
@@ -7351,10 +7354,10 @@
         <v>-4.0661638902453801E+18</v>
       </c>
       <c r="B491">
-        <v>-26</v>
+        <v>57</v>
       </c>
       <c r="C491">
-        <v>11.4</v>
+        <v>23.8</v>
       </c>
       <c r="D491" t="s">
         <v>4</v>
@@ -7365,10 +7368,10 @@
         <v>-4.0661638902453801E+18</v>
       </c>
       <c r="B492">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C492">
-        <v>23.8</v>
+        <v>17</v>
       </c>
       <c r="D492" t="s">
         <v>4</v>
@@ -7379,10 +7382,10 @@
         <v>-4.0661638902453801E+18</v>
       </c>
       <c r="B493">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="C493">
-        <v>17</v>
+        <v>21.9</v>
       </c>
       <c r="D493" t="s">
         <v>4</v>
@@ -7390,13 +7393,13 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>-4.0661638902453801E+18</v>
+        <v>8.4758420405035633E+18</v>
       </c>
       <c r="B494">
-        <v>89</v>
+        <v>-14</v>
       </c>
       <c r="C494">
-        <v>21.9</v>
+        <v>60</v>
       </c>
       <c r="D494" t="s">
         <v>4</v>
@@ -7407,10 +7410,10 @@
         <v>8.4758420405035633E+18</v>
       </c>
       <c r="B495">
-        <v>-14</v>
+        <v>56</v>
       </c>
       <c r="C495">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D495" t="s">
         <v>4</v>
@@ -7421,10 +7424,10 @@
         <v>8.4758420405035633E+18</v>
       </c>
       <c r="B496">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="C496">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D496" t="s">
         <v>4</v>
@@ -7435,10 +7438,10 @@
         <v>8.4758420405035633E+18</v>
       </c>
       <c r="B497">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="C497">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D497" t="s">
         <v>4</v>
@@ -7449,10 +7452,10 @@
         <v>8.4758420405035633E+18</v>
       </c>
       <c r="B498">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="C498">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D498" t="s">
         <v>4</v>
@@ -7463,10 +7466,10 @@
         <v>8.4758420405035633E+18</v>
       </c>
       <c r="B499">
-        <v>253</v>
+        <v>321</v>
       </c>
       <c r="C499">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D499" t="s">
         <v>4</v>
@@ -7477,10 +7480,10 @@
         <v>8.4758420405035633E+18</v>
       </c>
       <c r="B500">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C500">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D500" t="s">
         <v>4</v>
@@ -7491,7 +7494,7 @@
         <v>8.4758420405035633E+18</v>
       </c>
       <c r="B501">
-        <v>394</v>
+        <v>478</v>
       </c>
       <c r="C501">
         <v>40</v>
@@ -7502,13 +7505,13 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>8.4758420405035633E+18</v>
+        <v>-5.5802055280745001E+18</v>
       </c>
       <c r="B502">
-        <v>478</v>
+        <v>-5</v>
       </c>
       <c r="C502">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D502" t="s">
         <v>4</v>
@@ -7519,10 +7522,10 @@
         <v>-5.5802055280745001E+18</v>
       </c>
       <c r="B503">
-        <v>-5</v>
+        <v>64</v>
       </c>
       <c r="C503">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D503" t="s">
         <v>4</v>
@@ -7533,10 +7536,10 @@
         <v>-5.5802055280745001E+18</v>
       </c>
       <c r="B504">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="C504">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D504" t="s">
         <v>4</v>
@@ -7547,7 +7550,7 @@
         <v>-5.5802055280745001E+18</v>
       </c>
       <c r="B505">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="C505">
         <v>51</v>
@@ -7561,10 +7564,10 @@
         <v>-5.5802055280745001E+18</v>
       </c>
       <c r="B506">
-        <v>190</v>
+        <v>274</v>
       </c>
       <c r="C506">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D506" t="s">
         <v>4</v>
@@ -7575,10 +7578,10 @@
         <v>-5.5802055280745001E+18</v>
       </c>
       <c r="B507">
-        <v>274</v>
+        <v>337</v>
       </c>
       <c r="C507">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D507" t="s">
         <v>4</v>
@@ -7589,10 +7592,10 @@
         <v>-5.5802055280745001E+18</v>
       </c>
       <c r="B508">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="C508">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D508" t="s">
         <v>4</v>
@@ -7603,10 +7606,10 @@
         <v>-5.5802055280745001E+18</v>
       </c>
       <c r="B509">
-        <v>393</v>
+        <v>295</v>
       </c>
       <c r="C509">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D509" t="s">
         <v>4</v>
@@ -7614,13 +7617,13 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>-5.5802055280745001E+18</v>
+        <v>2.622761892485968E+17</v>
       </c>
       <c r="B510">
-        <v>295</v>
+        <v>-27</v>
       </c>
       <c r="C510">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D510" t="s">
         <v>4</v>
@@ -7631,10 +7634,10 @@
         <v>2.622761892485968E+17</v>
       </c>
       <c r="B511">
-        <v>-27</v>
+        <v>63</v>
       </c>
       <c r="C511">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D511" t="s">
         <v>4</v>
@@ -7645,10 +7648,10 @@
         <v>2.622761892485968E+17</v>
       </c>
       <c r="B512">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C512">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D512" t="s">
         <v>4</v>
@@ -7659,7 +7662,7 @@
         <v>2.622761892485968E+17</v>
       </c>
       <c r="B513">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="C513">
         <v>0</v>
@@ -7673,7 +7676,7 @@
         <v>2.622761892485968E+17</v>
       </c>
       <c r="B514">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="C514">
         <v>0</v>
@@ -7687,7 +7690,7 @@
         <v>2.622761892485968E+17</v>
       </c>
       <c r="B515">
-        <v>253</v>
+        <v>316</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -7701,7 +7704,7 @@
         <v>2.622761892485968E+17</v>
       </c>
       <c r="B516">
-        <v>316</v>
+        <v>379</v>
       </c>
       <c r="C516">
         <v>0</v>
@@ -7715,7 +7718,7 @@
         <v>2.622761892485968E+17</v>
       </c>
       <c r="B517">
-        <v>379</v>
+        <v>462</v>
       </c>
       <c r="C517">
         <v>0</v>
@@ -7729,7 +7732,7 @@
         <v>2.622761892485968E+17</v>
       </c>
       <c r="B518">
-        <v>462</v>
+        <v>533</v>
       </c>
       <c r="C518">
         <v>0</v>
@@ -7743,7 +7746,7 @@
         <v>2.622761892485968E+17</v>
       </c>
       <c r="B519">
-        <v>533</v>
+        <v>616</v>
       </c>
       <c r="C519">
         <v>0</v>
@@ -7754,13 +7757,13 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>2.622761892485968E+17</v>
+        <v>3.4903686563737682E+18</v>
       </c>
       <c r="B520">
-        <v>616</v>
+        <v>-2</v>
       </c>
       <c r="C520">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D520" t="s">
         <v>4</v>
@@ -7771,10 +7774,10 @@
         <v>3.4903686563737682E+18</v>
       </c>
       <c r="B521">
-        <v>-2</v>
+        <v>57</v>
       </c>
       <c r="C521">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D521" t="s">
         <v>4</v>
@@ -7785,10 +7788,10 @@
         <v>3.4903686563737682E+18</v>
       </c>
       <c r="B522">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="C522">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D522" t="s">
         <v>4</v>
@@ -7796,13 +7799,13 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>3.4903686563737682E+18</v>
+        <v>8.6825365660334618E+17</v>
       </c>
       <c r="B523">
-        <v>131</v>
+        <v>-7</v>
       </c>
       <c r="C523">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D523" t="s">
         <v>4</v>
@@ -7813,10 +7816,10 @@
         <v>8.6825365660334618E+17</v>
       </c>
       <c r="B524">
-        <v>-7</v>
+        <v>62</v>
       </c>
       <c r="C524">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D524" t="s">
         <v>4</v>
@@ -7827,10 +7830,10 @@
         <v>8.6825365660334618E+17</v>
       </c>
       <c r="B525">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C525">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D525" t="s">
         <v>4</v>
@@ -7841,10 +7844,10 @@
         <v>8.6825365660334618E+17</v>
       </c>
       <c r="B526">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="C526">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D526" t="s">
         <v>4</v>
@@ -7855,10 +7858,10 @@
         <v>8.6825365660334618E+17</v>
       </c>
       <c r="B527">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="C527">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D527" t="s">
         <v>4</v>
@@ -7869,7 +7872,7 @@
         <v>8.6825365660334618E+17</v>
       </c>
       <c r="B528">
-        <v>255</v>
+        <v>317</v>
       </c>
       <c r="C528">
         <v>37</v>
@@ -7883,10 +7886,10 @@
         <v>8.6825365660334618E+17</v>
       </c>
       <c r="B529">
-        <v>317</v>
+        <v>406</v>
       </c>
       <c r="C529">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D529" t="s">
         <v>4</v>
@@ -7897,10 +7900,10 @@
         <v>8.6825365660334618E+17</v>
       </c>
       <c r="B530">
-        <v>406</v>
+        <v>486</v>
       </c>
       <c r="C530">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D530" t="s">
         <v>4</v>
@@ -7911,10 +7914,10 @@
         <v>8.6825365660334618E+17</v>
       </c>
       <c r="B531">
-        <v>486</v>
+        <v>580</v>
       </c>
       <c r="C531">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D531" t="s">
         <v>4</v>
@@ -7925,10 +7928,10 @@
         <v>8.6825365660334618E+17</v>
       </c>
       <c r="B532">
-        <v>580</v>
+        <v>674</v>
       </c>
       <c r="C532">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D532" t="s">
         <v>4</v>
@@ -7936,13 +7939,13 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>8.6825365660334618E+17</v>
+        <v>2.005729327279247E+17</v>
       </c>
       <c r="B533">
-        <v>674</v>
+        <v>-3</v>
       </c>
       <c r="C533">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D533" t="s">
         <v>4</v>
@@ -7953,10 +7956,10 @@
         <v>2.005729327279247E+17</v>
       </c>
       <c r="B534">
-        <v>-3</v>
+        <v>61</v>
       </c>
       <c r="C534">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D534" t="s">
         <v>4</v>
@@ -7967,10 +7970,10 @@
         <v>2.005729327279247E+17</v>
       </c>
       <c r="B535">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="C535">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D535" t="s">
         <v>4</v>
@@ -7978,13 +7981,13 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>2.005729327279247E+17</v>
+        <v>8.1210456328566743E+18</v>
       </c>
       <c r="B536">
-        <v>123</v>
+        <v>-18</v>
       </c>
       <c r="C536">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D536" t="s">
         <v>4</v>
@@ -7995,10 +7998,10 @@
         <v>8.1210456328566743E+18</v>
       </c>
       <c r="B537">
-        <v>-18</v>
+        <v>65</v>
       </c>
       <c r="C537">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D537" t="s">
         <v>4</v>
@@ -8009,10 +8012,10 @@
         <v>8.1210456328566743E+18</v>
       </c>
       <c r="B538">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="C538">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D538" t="s">
         <v>4</v>
@@ -8023,10 +8026,10 @@
         <v>8.1210456328566743E+18</v>
       </c>
       <c r="B539">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="C539">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D539" t="s">
         <v>4</v>
@@ -8037,10 +8040,10 @@
         <v>8.1210456328566743E+18</v>
       </c>
       <c r="B540">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="C540">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D540" t="s">
         <v>4</v>
@@ -8051,10 +8054,10 @@
         <v>8.1210456328566743E+18</v>
       </c>
       <c r="B541">
-        <v>252</v>
+        <v>317</v>
       </c>
       <c r="C541">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D541" t="s">
         <v>4</v>
@@ -8065,7 +8068,7 @@
         <v>8.1210456328566743E+18</v>
       </c>
       <c r="B542">
-        <v>317</v>
+        <v>399</v>
       </c>
       <c r="C542">
         <v>21</v>
@@ -8079,10 +8082,10 @@
         <v>8.1210456328566743E+18</v>
       </c>
       <c r="B543">
-        <v>399</v>
+        <v>486</v>
       </c>
       <c r="C543">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D543" t="s">
         <v>4</v>
@@ -8093,7 +8096,7 @@
         <v>8.1210456328566743E+18</v>
       </c>
       <c r="B544">
-        <v>486</v>
+        <v>567</v>
       </c>
       <c r="C544">
         <v>22</v>
@@ -8107,10 +8110,10 @@
         <v>8.1210456328566743E+18</v>
       </c>
       <c r="B545">
-        <v>567</v>
+        <v>653</v>
       </c>
       <c r="C545">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D545" t="s">
         <v>4</v>
@@ -8121,7 +8124,7 @@
         <v>8.1210456328566743E+18</v>
       </c>
       <c r="B546">
-        <v>653</v>
+        <v>722</v>
       </c>
       <c r="C546">
         <v>21</v>
@@ -8132,13 +8135,13 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>8.1210456328566743E+18</v>
+        <v>-3.1347849030807921E+18</v>
       </c>
       <c r="B547">
-        <v>722</v>
+        <v>-10</v>
       </c>
       <c r="C547">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D547" t="s">
         <v>4</v>
@@ -8149,10 +8152,10 @@
         <v>-3.1347849030807921E+18</v>
       </c>
       <c r="B548">
-        <v>-10</v>
+        <v>64</v>
       </c>
       <c r="C548">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D548" t="s">
         <v>4</v>
@@ -8163,10 +8166,10 @@
         <v>-3.1347849030807921E+18</v>
       </c>
       <c r="B549">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="C549">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D549" t="s">
         <v>4</v>
@@ -8177,7 +8180,7 @@
         <v>-3.1347849030807921E+18</v>
       </c>
       <c r="B550">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="C550">
         <v>21</v>
@@ -8191,10 +8194,10 @@
         <v>-3.1347849030807921E+18</v>
       </c>
       <c r="B551">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="C551">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D551" t="s">
         <v>4</v>
@@ -8205,10 +8208,10 @@
         <v>-3.1347849030807921E+18</v>
       </c>
       <c r="B552">
-        <v>253</v>
+        <v>316</v>
       </c>
       <c r="C552">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D552" t="s">
         <v>4</v>
@@ -8219,10 +8222,10 @@
         <v>-3.1347849030807921E+18</v>
       </c>
       <c r="B553">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="C553">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D553" t="s">
         <v>4</v>
@@ -8233,10 +8236,10 @@
         <v>-3.1347849030807921E+18</v>
       </c>
       <c r="B554">
-        <v>400</v>
+        <v>487</v>
       </c>
       <c r="C554">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D554" t="s">
         <v>4</v>
@@ -8247,7 +8250,7 @@
         <v>-3.1347849030807921E+18</v>
       </c>
       <c r="B555">
-        <v>487</v>
+        <v>568</v>
       </c>
       <c r="C555">
         <v>22</v>
@@ -8261,7 +8264,7 @@
         <v>-3.1347849030807921E+18</v>
       </c>
       <c r="B556">
-        <v>568</v>
+        <v>655</v>
       </c>
       <c r="C556">
         <v>22</v>
@@ -8272,13 +8275,13 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>-3.1347849030807921E+18</v>
+        <v>3.6480275531938422E+18</v>
       </c>
       <c r="B557">
-        <v>655</v>
+        <v>-14</v>
       </c>
       <c r="C557">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D557" t="s">
         <v>4</v>
@@ -8289,10 +8292,10 @@
         <v>3.6480275531938422E+18</v>
       </c>
       <c r="B558">
-        <v>-14</v>
+        <v>61</v>
       </c>
       <c r="C558">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D558" t="s">
         <v>4</v>
@@ -8303,10 +8306,10 @@
         <v>3.6480275531938422E+18</v>
       </c>
       <c r="B559">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="C559">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D559" t="s">
         <v>4</v>
@@ -8317,10 +8320,10 @@
         <v>3.6480275531938422E+18</v>
       </c>
       <c r="B560">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="C560">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D560" t="s">
         <v>4</v>
@@ -8331,10 +8334,10 @@
         <v>3.6480275531938422E+18</v>
       </c>
       <c r="B561">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="C561">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D561" t="s">
         <v>4</v>
@@ -8345,10 +8348,10 @@
         <v>3.6480275531938422E+18</v>
       </c>
       <c r="B562">
-        <v>257</v>
+        <v>320</v>
       </c>
       <c r="C562">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D562" t="s">
         <v>4</v>
@@ -8359,10 +8362,10 @@
         <v>3.6480275531938422E+18</v>
       </c>
       <c r="B563">
-        <v>320</v>
+        <v>383</v>
       </c>
       <c r="C563">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D563" t="s">
         <v>4</v>
@@ -8373,10 +8376,10 @@
         <v>3.6480275531938422E+18</v>
       </c>
       <c r="B564">
-        <v>383</v>
+        <v>451</v>
       </c>
       <c r="C564">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D564" t="s">
         <v>4</v>
@@ -8384,13 +8387,13 @@
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>3.6480275531938422E+18</v>
+        <v>6.7729695192710925E+17</v>
       </c>
       <c r="B565">
-        <v>451</v>
+        <v>-26</v>
       </c>
       <c r="C565">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D565" t="s">
         <v>4</v>
@@ -8401,10 +8404,10 @@
         <v>6.7729695192710925E+17</v>
       </c>
       <c r="B566">
-        <v>-26</v>
+        <v>62</v>
       </c>
       <c r="C566">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D566" t="s">
         <v>4</v>
@@ -8415,7 +8418,7 @@
         <v>6.7729695192710925E+17</v>
       </c>
       <c r="B567">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C567">
         <v>0</v>
@@ -8429,7 +8432,7 @@
         <v>6.7729695192710925E+17</v>
       </c>
       <c r="B568">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="C568">
         <v>0</v>
@@ -8443,7 +8446,7 @@
         <v>6.7729695192710925E+17</v>
       </c>
       <c r="B569">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="C569">
         <v>0</v>
@@ -8457,7 +8460,7 @@
         <v>6.7729695192710925E+17</v>
       </c>
       <c r="B570">
-        <v>244</v>
+        <v>309</v>
       </c>
       <c r="C570">
         <v>0</v>
@@ -8471,7 +8474,7 @@
         <v>6.7729695192710925E+17</v>
       </c>
       <c r="B571">
-        <v>309</v>
+        <v>374</v>
       </c>
       <c r="C571">
         <v>0</v>
@@ -8485,7 +8488,7 @@
         <v>6.7729695192710925E+17</v>
       </c>
       <c r="B572">
-        <v>374</v>
+        <v>461</v>
       </c>
       <c r="C572">
         <v>0</v>
@@ -8499,7 +8502,7 @@
         <v>6.7729695192710925E+17</v>
       </c>
       <c r="B573">
-        <v>461</v>
+        <v>542</v>
       </c>
       <c r="C573">
         <v>0</v>
@@ -8510,13 +8513,13 @@
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574">
-        <v>6.7729695192710925E+17</v>
+        <v>-5.6816132669299507E+18</v>
       </c>
       <c r="B574">
-        <v>542</v>
+        <v>-7</v>
       </c>
       <c r="C574">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D574" t="s">
         <v>4</v>
@@ -8527,10 +8530,10 @@
         <v>-5.6816132669299507E+18</v>
       </c>
       <c r="B575">
-        <v>-7</v>
+        <v>58</v>
       </c>
       <c r="C575">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D575" t="s">
         <v>4</v>
@@ -8541,10 +8544,10 @@
         <v>-5.6816132669299507E+18</v>
       </c>
       <c r="B576">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="C576">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D576" t="s">
         <v>4</v>
@@ -8555,10 +8558,10 @@
         <v>-5.6816132669299507E+18</v>
       </c>
       <c r="B577">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="C577">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D577" t="s">
         <v>4</v>
@@ -8566,13 +8569,13 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578">
-        <v>-5.6816132669299507E+18</v>
+        <v>7.3215711664229356E+18</v>
       </c>
       <c r="B578">
-        <v>182</v>
+        <v>-28</v>
       </c>
       <c r="C578">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D578" t="s">
         <v>4</v>
@@ -8583,10 +8586,10 @@
         <v>7.3215711664229356E+18</v>
       </c>
       <c r="B579">
-        <v>-28</v>
+        <v>51</v>
       </c>
       <c r="C579">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D579" t="s">
         <v>4</v>
@@ -8597,10 +8600,10 @@
         <v>7.3215711664229356E+18</v>
       </c>
       <c r="B580">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C580">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D580" t="s">
         <v>4</v>
@@ -8608,13 +8611,13 @@
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>7.3215711664229356E+18</v>
+        <v>-6.1076657075033375E+18</v>
       </c>
       <c r="B581">
-        <v>92</v>
+        <v>-26</v>
       </c>
       <c r="C581">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D581" t="s">
         <v>4</v>
@@ -8625,10 +8628,10 @@
         <v>-6.1076657075033375E+18</v>
       </c>
       <c r="B582">
-        <v>-26</v>
+        <v>58</v>
       </c>
       <c r="C582">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D582" t="s">
         <v>4</v>
@@ -8639,7 +8642,7 @@
         <v>-6.1076657075033375E+18</v>
       </c>
       <c r="B583">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="C583">
         <v>11</v>
@@ -8653,7 +8656,7 @@
         <v>-6.1076657075033375E+18</v>
       </c>
       <c r="B584">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="C584">
         <v>11</v>
@@ -8667,7 +8670,7 @@
         <v>-6.1076657075033375E+18</v>
       </c>
       <c r="B585">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="C585">
         <v>11</v>
@@ -8681,10 +8684,10 @@
         <v>-6.1076657075033375E+18</v>
       </c>
       <c r="B586">
-        <v>247</v>
+        <v>311</v>
       </c>
       <c r="C586">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D586" t="s">
         <v>4</v>
@@ -8695,7 +8698,7 @@
         <v>-6.1076657075033375E+18</v>
       </c>
       <c r="B587">
-        <v>311</v>
+        <v>374</v>
       </c>
       <c r="C587">
         <v>10</v>
@@ -8709,10 +8712,10 @@
         <v>-6.1076657075033375E+18</v>
       </c>
       <c r="B588">
-        <v>374</v>
+        <v>458</v>
       </c>
       <c r="C588">
-        <v>10</v>
+        <v>10.7</v>
       </c>
       <c r="D588" t="s">
         <v>4</v>
@@ -8723,10 +8726,10 @@
         <v>-6.1076657075033375E+18</v>
       </c>
       <c r="B589">
-        <v>458</v>
+        <v>542</v>
       </c>
       <c r="C589">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="D589" t="s">
         <v>4</v>
@@ -8737,10 +8740,10 @@
         <v>-6.1076657075033375E+18</v>
       </c>
       <c r="B590">
-        <v>542</v>
+        <v>626</v>
       </c>
       <c r="C590">
-        <v>10.8</v>
+        <v>10</v>
       </c>
       <c r="D590" t="s">
         <v>4</v>
@@ -8748,13 +8751,13 @@
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>-6.1076657075033375E+18</v>
+        <v>-2.5118480679100498E+18</v>
       </c>
       <c r="B591">
-        <v>626</v>
+        <v>-28</v>
       </c>
       <c r="C591">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D591" t="s">
         <v>4</v>
@@ -8765,10 +8768,10 @@
         <v>-2.5118480679100498E+18</v>
       </c>
       <c r="B592">
-        <v>-28</v>
+        <v>63</v>
       </c>
       <c r="C592">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D592" t="s">
         <v>4</v>
@@ -8779,10 +8782,10 @@
         <v>-2.5118480679100498E+18</v>
       </c>
       <c r="B593">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C593">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D593" t="s">
         <v>4</v>
@@ -8793,7 +8796,7 @@
         <v>-2.5118480679100498E+18</v>
       </c>
       <c r="B594">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="C594">
         <v>30</v>
@@ -8807,7 +8810,7 @@
         <v>-2.5118480679100498E+18</v>
       </c>
       <c r="B595">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="C595">
         <v>30</v>
@@ -8821,10 +8824,10 @@
         <v>-2.5118480679100498E+18</v>
       </c>
       <c r="B596">
-        <v>252</v>
+        <v>316</v>
       </c>
       <c r="C596">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D596" t="s">
         <v>4</v>
@@ -8835,7 +8838,7 @@
         <v>-2.5118480679100498E+18</v>
       </c>
       <c r="B597">
-        <v>316</v>
+        <v>386</v>
       </c>
       <c r="C597">
         <v>17</v>
@@ -8849,10 +8852,10 @@
         <v>-2.5118480679100498E+18</v>
       </c>
       <c r="B598">
-        <v>386</v>
+        <v>470</v>
       </c>
       <c r="C598">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D598" t="s">
         <v>4</v>
@@ -8863,10 +8866,10 @@
         <v>-2.5118480679100498E+18</v>
       </c>
       <c r="B599">
-        <v>470</v>
+        <v>554</v>
       </c>
       <c r="C599">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D599" t="s">
         <v>4</v>
@@ -8877,7 +8880,7 @@
         <v>-2.5118480679100498E+18</v>
       </c>
       <c r="B600">
-        <v>554</v>
+        <v>638</v>
       </c>
       <c r="C600">
         <v>17</v>
@@ -8888,13 +8891,13 @@
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>-2.5118480679100498E+18</v>
+        <v>9.9984525561360832E+17</v>
       </c>
       <c r="B601">
-        <v>638</v>
+        <v>-18</v>
       </c>
       <c r="C601">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D601" t="s">
         <v>4</v>
@@ -8905,10 +8908,10 @@
         <v>9.9984525561360832E+17</v>
       </c>
       <c r="B602">
-        <v>-18</v>
+        <v>60</v>
       </c>
       <c r="C602">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D602" t="s">
         <v>4</v>
@@ -8919,10 +8922,10 @@
         <v>9.9984525561360832E+17</v>
       </c>
       <c r="B603">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="C603">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D603" t="s">
         <v>4</v>
@@ -8933,10 +8936,10 @@
         <v>9.9984525561360832E+17</v>
       </c>
       <c r="B604">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="C604">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D604" t="s">
         <v>4</v>
@@ -8944,13 +8947,13 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>9.9984525561360832E+17</v>
+        <v>8.6076053597908314E+17</v>
       </c>
       <c r="B605">
-        <v>186</v>
+        <v>-13</v>
       </c>
       <c r="C605">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D605" t="s">
         <v>4</v>
@@ -8961,10 +8964,10 @@
         <v>8.6076053597908314E+17</v>
       </c>
       <c r="B606">
-        <v>-13</v>
+        <v>66</v>
       </c>
       <c r="C606">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D606" t="s">
         <v>4</v>
@@ -8975,10 +8978,10 @@
         <v>8.6076053597908314E+17</v>
       </c>
       <c r="B607">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="C607">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D607" t="s">
         <v>4</v>
@@ -8989,10 +8992,10 @@
         <v>8.6076053597908314E+17</v>
       </c>
       <c r="B608">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="C608">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D608" t="s">
         <v>4</v>
@@ -9003,10 +9006,10 @@
         <v>8.6076053597908314E+17</v>
       </c>
       <c r="B609">
-        <v>199</v>
+        <v>262</v>
       </c>
       <c r="C609">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D609" t="s">
         <v>4</v>
@@ -9014,13 +9017,13 @@
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>8.6076053597908314E+17</v>
+        <v>1.0582191280648829E+18</v>
       </c>
       <c r="B610">
-        <v>262</v>
+        <v>-10</v>
       </c>
       <c r="C610">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D610" t="s">
         <v>4</v>
@@ -9031,10 +9034,10 @@
         <v>1.0582191280648829E+18</v>
       </c>
       <c r="B611">
-        <v>-10</v>
+        <v>62</v>
       </c>
       <c r="C611">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D611" t="s">
         <v>4</v>
@@ -9045,10 +9048,10 @@
         <v>1.0582191280648829E+18</v>
       </c>
       <c r="B612">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="C612">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D612" t="s">
         <v>4</v>
@@ -9056,10 +9059,10 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>1.0582191280648829E+18</v>
+        <v>-1.915064540709162E+18</v>
       </c>
       <c r="B613">
-        <v>117</v>
+        <v>-16</v>
       </c>
       <c r="C613">
         <v>25</v>
@@ -9073,10 +9076,10 @@
         <v>-1.915064540709162E+18</v>
       </c>
       <c r="B614">
-        <v>-16</v>
+        <v>61</v>
       </c>
       <c r="C614">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D614" t="s">
         <v>4</v>
@@ -9087,10 +9090,10 @@
         <v>-1.915064540709162E+18</v>
       </c>
       <c r="B615">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="C615">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D615" t="s">
         <v>4</v>
@@ -9098,13 +9101,13 @@
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>-1.915064540709162E+18</v>
+        <v>7.6972244596602173E+18</v>
       </c>
       <c r="B616">
-        <v>90</v>
+        <v>-5</v>
       </c>
       <c r="C616">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D616" t="s">
         <v>4</v>
@@ -9115,7 +9118,7 @@
         <v>7.6972244596602173E+18</v>
       </c>
       <c r="B617">
-        <v>-5</v>
+        <v>63</v>
       </c>
       <c r="C617">
         <v>10</v>
@@ -9129,10 +9132,10 @@
         <v>7.6972244596602173E+18</v>
       </c>
       <c r="B618">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C618">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D618" t="s">
         <v>4</v>
@@ -9143,10 +9146,10 @@
         <v>7.6972244596602173E+18</v>
       </c>
       <c r="B619">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="C619">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D619" t="s">
         <v>4</v>
@@ -9157,10 +9160,10 @@
         <v>7.6972244596602173E+18</v>
       </c>
       <c r="B620">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="C620">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D620" t="s">
         <v>4</v>
@@ -9168,13 +9171,13 @@
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>7.6972244596602173E+18</v>
+        <v>4.2714420016892529E+18</v>
       </c>
       <c r="B621">
-        <v>252</v>
+        <v>-16</v>
       </c>
       <c r="C621">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D621" t="s">
         <v>4</v>
@@ -9185,7 +9188,7 @@
         <v>4.2714420016892529E+18</v>
       </c>
       <c r="B622">
-        <v>-16</v>
+        <v>69</v>
       </c>
       <c r="C622">
         <v>23</v>
@@ -9199,10 +9202,10 @@
         <v>4.2714420016892529E+18</v>
       </c>
       <c r="B623">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="C623">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D623" t="s">
         <v>4</v>
@@ -9213,10 +9216,10 @@
         <v>4.2714420016892529E+18</v>
       </c>
       <c r="B624">
-        <v>131</v>
+        <v>195</v>
       </c>
       <c r="C624">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D624" t="s">
         <v>4</v>
@@ -9227,7 +9230,7 @@
         <v>4.2714420016892529E+18</v>
       </c>
       <c r="B625">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="C625">
         <v>26</v>
@@ -9241,10 +9244,10 @@
         <v>4.2714420016892529E+18</v>
       </c>
       <c r="B626">
-        <v>258</v>
-      </c>
-      <c r="C626">
-        <v>26</v>
+        <v>321</v>
+      </c>
+      <c r="C626" t="s">
+        <v>5</v>
       </c>
       <c r="D626" t="s">
         <v>4</v>
@@ -9255,7 +9258,7 @@
         <v>4.2714420016892529E+18</v>
       </c>
       <c r="B627">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="C627" t="s">
         <v>5</v>
@@ -9269,7 +9272,7 @@
         <v>4.2714420016892529E+18</v>
       </c>
       <c r="B628">
-        <v>407</v>
+        <v>496</v>
       </c>
       <c r="C628" t="s">
         <v>5</v>
@@ -9283,7 +9286,7 @@
         <v>4.2714420016892529E+18</v>
       </c>
       <c r="B629">
-        <v>496</v>
+        <v>582</v>
       </c>
       <c r="C629" t="s">
         <v>5</v>
@@ -9297,7 +9300,7 @@
         <v>4.2714420016892529E+18</v>
       </c>
       <c r="B630">
-        <v>582</v>
+        <v>667</v>
       </c>
       <c r="C630" t="s">
         <v>5</v>
@@ -9308,13 +9311,13 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631">
-        <v>4.2714420016892529E+18</v>
+        <v>-7.8508990639354511E+18</v>
       </c>
       <c r="B631">
-        <v>667</v>
-      </c>
-      <c r="C631" t="s">
-        <v>5</v>
+        <v>-28</v>
+      </c>
+      <c r="C631">
+        <v>44</v>
       </c>
       <c r="D631" t="s">
         <v>4</v>
@@ -9325,10 +9328,10 @@
         <v>-7.8508990639354511E+18</v>
       </c>
       <c r="B632">
-        <v>-28</v>
+        <v>48</v>
       </c>
       <c r="C632">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D632" t="s">
         <v>4</v>
@@ -9339,7 +9342,7 @@
         <v>-7.8508990639354511E+18</v>
       </c>
       <c r="B633">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="C633">
         <v>30</v>
@@ -9353,10 +9356,10 @@
         <v>-7.8508990639354511E+18</v>
       </c>
       <c r="B634">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="C634">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D634" t="s">
         <v>4</v>
@@ -9367,10 +9370,10 @@
         <v>-7.8508990639354511E+18</v>
       </c>
       <c r="B635">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="C635">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D635" t="s">
         <v>4</v>
@@ -9381,10 +9384,10 @@
         <v>-7.8508990639354511E+18</v>
       </c>
       <c r="B636">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="C636">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D636" t="s">
         <v>4</v>
@@ -9395,7 +9398,7 @@
         <v>-7.8508990639354511E+18</v>
       </c>
       <c r="B637">
-        <v>312</v>
+        <v>375</v>
       </c>
       <c r="C637">
         <v>30</v>
@@ -9409,10 +9412,10 @@
         <v>-7.8508990639354511E+18</v>
       </c>
       <c r="B638">
-        <v>375</v>
+        <v>459</v>
       </c>
       <c r="C638">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D638" t="s">
         <v>4</v>
@@ -9423,10 +9426,10 @@
         <v>-7.8508990639354511E+18</v>
       </c>
       <c r="B639">
-        <v>459</v>
+        <v>543</v>
       </c>
       <c r="C639">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D639" t="s">
         <v>4</v>
@@ -9437,10 +9440,10 @@
         <v>-7.8508990639354511E+18</v>
       </c>
       <c r="B640">
-        <v>543</v>
+        <v>627</v>
       </c>
       <c r="C640">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D640" t="s">
         <v>4</v>
@@ -9451,10 +9454,10 @@
         <v>-7.8508990639354511E+18</v>
       </c>
       <c r="B641">
-        <v>627</v>
-      </c>
-      <c r="C641">
-        <v>28</v>
+        <v>712</v>
+      </c>
+      <c r="C641" t="s">
+        <v>5</v>
       </c>
       <c r="D641" t="s">
         <v>4</v>
@@ -9462,13 +9465,13 @@
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642">
-        <v>-7.8508990639354511E+18</v>
+        <v>5.0459820153971784E+18</v>
       </c>
       <c r="B642">
-        <v>712</v>
-      </c>
-      <c r="C642" t="s">
-        <v>5</v>
+        <v>-7</v>
+      </c>
+      <c r="C642">
+        <v>13</v>
       </c>
       <c r="D642" t="s">
         <v>4</v>
@@ -9479,10 +9482,10 @@
         <v>5.0459820153971784E+18</v>
       </c>
       <c r="B643">
-        <v>-7</v>
+        <v>62</v>
       </c>
       <c r="C643">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D643" t="s">
         <v>4</v>
@@ -9493,10 +9496,10 @@
         <v>5.0459820153971784E+18</v>
       </c>
       <c r="B644">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C644">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D644" t="s">
         <v>4</v>
@@ -9507,7 +9510,7 @@
         <v>5.0459820153971784E+18</v>
       </c>
       <c r="B645">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="C645">
         <v>0</v>
@@ -9521,7 +9524,7 @@
         <v>5.0459820153971784E+18</v>
       </c>
       <c r="B646">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="C646">
         <v>0</v>
@@ -9532,13 +9535,13 @@
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647">
-        <v>5.0459820153971784E+18</v>
+        <v>2.1153734067614661E+18</v>
       </c>
       <c r="B647">
-        <v>252</v>
+        <v>-22</v>
       </c>
       <c r="C647">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D647" t="s">
         <v>4</v>
@@ -9549,10 +9552,10 @@
         <v>2.1153734067614661E+18</v>
       </c>
       <c r="B648">
-        <v>-22</v>
+        <v>61</v>
       </c>
       <c r="C648">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D648" t="s">
         <v>4</v>
@@ -9563,7 +9566,7 @@
         <v>2.1153734067614661E+18</v>
       </c>
       <c r="B649">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="C649">
         <v>28</v>
@@ -9577,10 +9580,10 @@
         <v>2.1153734067614661E+18</v>
       </c>
       <c r="B650">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="C650">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D650" t="s">
         <v>4</v>
@@ -9591,10 +9594,10 @@
         <v>2.1153734067614661E+18</v>
       </c>
       <c r="B651">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="C651">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D651" t="s">
         <v>4</v>
@@ -9605,10 +9608,10 @@
         <v>2.1153734067614661E+18</v>
       </c>
       <c r="B652">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="C652">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D652" t="s">
         <v>4</v>
@@ -9619,10 +9622,10 @@
         <v>2.1153734067614661E+18</v>
       </c>
       <c r="B653">
-        <v>313</v>
+        <v>376</v>
       </c>
       <c r="C653">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D653" t="s">
         <v>4</v>
@@ -9633,10 +9636,10 @@
         <v>2.1153734067614661E+18</v>
       </c>
       <c r="B654">
-        <v>376</v>
+        <v>462</v>
       </c>
       <c r="C654">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D654" t="s">
         <v>4</v>
@@ -9647,10 +9650,10 @@
         <v>2.1153734067614661E+18</v>
       </c>
       <c r="B655">
-        <v>462</v>
+        <v>96</v>
       </c>
       <c r="C655">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D655" t="s">
         <v>4</v>
@@ -9658,13 +9661,13 @@
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656">
-        <v>2.1153734067614661E+18</v>
+        <v>6.8438192289885005E+17</v>
       </c>
       <c r="B656">
-        <v>96</v>
+        <v>-7</v>
       </c>
       <c r="C656">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D656" t="s">
         <v>4</v>
@@ -9675,10 +9678,10 @@
         <v>6.8438192289885005E+17</v>
       </c>
       <c r="B657">
-        <v>-7</v>
+        <v>63</v>
       </c>
       <c r="C657">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D657" t="s">
         <v>4</v>
@@ -9689,10 +9692,10 @@
         <v>6.8438192289885005E+17</v>
       </c>
       <c r="B658">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="C658">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D658" t="s">
         <v>4</v>
@@ -9703,10 +9706,10 @@
         <v>6.8438192289885005E+17</v>
       </c>
       <c r="B659">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="C659">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D659" t="s">
         <v>4</v>
@@ -9717,7 +9720,7 @@
         <v>6.8438192289885005E+17</v>
       </c>
       <c r="B660">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="C660">
         <v>37</v>
@@ -9731,10 +9734,10 @@
         <v>6.8438192289885005E+17</v>
       </c>
       <c r="B661">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="C661">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D661" t="s">
         <v>4</v>
@@ -9742,13 +9745,13 @@
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662">
-        <v>6.8438192289885005E+17</v>
+        <v>-5.8809782271165942E+18</v>
       </c>
       <c r="B662">
-        <v>327</v>
+        <v>-17</v>
       </c>
       <c r="C662">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D662" t="s">
         <v>4</v>
@@ -9759,10 +9762,10 @@
         <v>-5.8809782271165942E+18</v>
       </c>
       <c r="B663">
-        <v>-17</v>
+        <v>62</v>
       </c>
       <c r="C663">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D663" t="s">
         <v>4</v>
@@ -9773,10 +9776,10 @@
         <v>-5.8809782271165942E+18</v>
       </c>
       <c r="B664">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C664">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D664" t="s">
         <v>4</v>
@@ -9784,13 +9787,13 @@
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665">
-        <v>-5.8809782271165942E+18</v>
+        <v>4.9881874717851566E+18</v>
       </c>
       <c r="B665">
-        <v>128</v>
+        <v>-20</v>
       </c>
       <c r="C665">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D665" t="s">
         <v>4</v>
@@ -9801,10 +9804,10 @@
         <v>4.9881874717851566E+18</v>
       </c>
       <c r="B666">
-        <v>-20</v>
+        <v>61</v>
       </c>
       <c r="C666">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D666" t="s">
         <v>4</v>
@@ -9815,7 +9818,7 @@
         <v>4.9881874717851566E+18</v>
       </c>
       <c r="B667">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="C667">
         <v>9</v>
@@ -9829,7 +9832,7 @@
         <v>4.9881874717851566E+18</v>
       </c>
       <c r="B668">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="C668">
         <v>9</v>
@@ -9843,7 +9846,7 @@
         <v>4.9881874717851566E+18</v>
       </c>
       <c r="B669">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="C669">
         <v>9</v>
@@ -9857,7 +9860,7 @@
         <v>4.9881874717851566E+18</v>
       </c>
       <c r="B670">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="C670">
         <v>9</v>
@@ -9871,7 +9874,7 @@
         <v>4.9881874717851566E+18</v>
       </c>
       <c r="B671">
-        <v>313</v>
+        <v>397</v>
       </c>
       <c r="C671">
         <v>9</v>
@@ -9885,10 +9888,10 @@
         <v>4.9881874717851566E+18</v>
       </c>
       <c r="B672">
-        <v>397</v>
+        <v>481</v>
       </c>
       <c r="C672">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D672" t="s">
         <v>4</v>
@@ -9899,7 +9902,7 @@
         <v>4.9881874717851566E+18</v>
       </c>
       <c r="B673">
-        <v>481</v>
+        <v>565</v>
       </c>
       <c r="C673">
         <v>5</v>
@@ -9913,7 +9916,7 @@
         <v>4.9881874717851566E+18</v>
       </c>
       <c r="B674">
-        <v>565</v>
+        <v>651</v>
       </c>
       <c r="C674">
         <v>5</v>
@@ -9924,13 +9927,13 @@
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675">
-        <v>4.9881874717851566E+18</v>
+        <v>4.8000059522309212E+18</v>
       </c>
       <c r="B675">
-        <v>651</v>
+        <v>-9</v>
       </c>
       <c r="C675">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D675" t="s">
         <v>4</v>
@@ -9941,10 +9944,10 @@
         <v>4.8000059522309212E+18</v>
       </c>
       <c r="B676">
-        <v>-9</v>
+        <v>57</v>
       </c>
       <c r="C676">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D676" t="s">
         <v>4</v>
@@ -9955,10 +9958,10 @@
         <v>4.8000059522309212E+18</v>
       </c>
       <c r="B677">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="C677">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D677" t="s">
         <v>4</v>
@@ -9969,10 +9972,10 @@
         <v>4.8000059522309212E+18</v>
       </c>
       <c r="B678">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="C678">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D678" t="s">
         <v>4</v>
@@ -9983,10 +9986,10 @@
         <v>4.8000059522309212E+18</v>
       </c>
       <c r="B679">
-        <v>203</v>
+        <v>273</v>
       </c>
       <c r="C679">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D679" t="s">
         <v>4</v>
@@ -9997,10 +10000,10 @@
         <v>4.8000059522309212E+18</v>
       </c>
       <c r="B680">
-        <v>273</v>
+        <v>335</v>
       </c>
       <c r="C680">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D680" t="s">
         <v>4</v>
@@ -10011,10 +10014,10 @@
         <v>4.8000059522309212E+18</v>
       </c>
       <c r="B681">
-        <v>335</v>
+        <v>420</v>
       </c>
       <c r="C681">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D681" t="s">
         <v>4</v>
@@ -10022,13 +10025,13 @@
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682">
-        <v>4.8000059522309212E+18</v>
+        <v>-1.737590654986921E+18</v>
       </c>
       <c r="B682">
-        <v>420</v>
+        <v>-27</v>
       </c>
       <c r="C682">
-        <v>41</v>
+        <v>13.6</v>
       </c>
       <c r="D682" t="s">
         <v>4</v>
@@ -10039,10 +10042,10 @@
         <v>-1.737590654986921E+18</v>
       </c>
       <c r="B683">
-        <v>-27</v>
+        <v>63</v>
       </c>
       <c r="C683">
-        <v>13.6</v>
+        <v>16</v>
       </c>
       <c r="D683" t="s">
         <v>4</v>
@@ -10053,10 +10056,10 @@
         <v>-1.737590654986921E+18</v>
       </c>
       <c r="B684">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C684">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D684" t="s">
         <v>4</v>
@@ -10064,13 +10067,13 @@
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685">
-        <v>-1.737590654986921E+18</v>
+        <v>-9.2688546745954483E+17</v>
       </c>
       <c r="B685">
-        <v>126</v>
+        <v>-31</v>
       </c>
       <c r="C685">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D685" t="s">
         <v>4</v>
@@ -10081,10 +10084,10 @@
         <v>-9.2688546745954483E+17</v>
       </c>
       <c r="B686">
-        <v>-31</v>
+        <v>66</v>
       </c>
       <c r="C686">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D686" t="s">
         <v>4</v>
@@ -10095,10 +10098,10 @@
         <v>-9.2688546745954483E+17</v>
       </c>
       <c r="B687">
-        <v>66</v>
+        <v>207</v>
       </c>
       <c r="C687">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D687" t="s">
         <v>4</v>
@@ -10109,10 +10112,10 @@
         <v>-9.2688546745954483E+17</v>
       </c>
       <c r="B688">
-        <v>207</v>
-      </c>
-      <c r="C688">
-        <v>10</v>
+        <v>137</v>
+      </c>
+      <c r="C688" t="s">
+        <v>5</v>
       </c>
       <c r="D688" t="s">
         <v>4</v>
@@ -10120,13 +10123,13 @@
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689">
-        <v>-9.2688546745954483E+17</v>
+        <v>-7.2595265725693839E+18</v>
       </c>
       <c r="B689">
-        <v>137</v>
-      </c>
-      <c r="C689" t="s">
-        <v>5</v>
+        <v>-6</v>
+      </c>
+      <c r="C689">
+        <v>15.9</v>
       </c>
       <c r="D689" t="s">
         <v>4</v>
@@ -10137,10 +10140,10 @@
         <v>-7.2595265725693839E+18</v>
       </c>
       <c r="B690">
-        <v>-6</v>
+        <v>56</v>
       </c>
       <c r="C690">
-        <v>15.9</v>
+        <v>12</v>
       </c>
       <c r="D690" t="s">
         <v>4</v>
@@ -10151,10 +10154,10 @@
         <v>-7.2595265725693839E+18</v>
       </c>
       <c r="B691">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="C691">
-        <v>12</v>
+        <v>8.1</v>
       </c>
       <c r="D691" t="s">
         <v>4</v>
@@ -10165,10 +10168,10 @@
         <v>-7.2595265725693839E+18</v>
       </c>
       <c r="B692">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="C692">
-        <v>8.1</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D692" t="s">
         <v>4</v>
@@ -10179,10 +10182,10 @@
         <v>-7.2595265725693839E+18</v>
       </c>
       <c r="B693">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="C693">
-        <v>8.6999999999999993</v>
+        <v>6.6</v>
       </c>
       <c r="D693" t="s">
         <v>4</v>
@@ -10193,10 +10196,10 @@
         <v>-7.2595265725693839E+18</v>
       </c>
       <c r="B694">
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="C694">
-        <v>6.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D694" t="s">
         <v>4</v>
@@ -10207,10 +10210,10 @@
         <v>-7.2595265725693839E+18</v>
       </c>
       <c r="B695">
-        <v>303</v>
+        <v>371</v>
       </c>
       <c r="C695">
-        <v>5.0999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D695" t="s">
         <v>4</v>
@@ -10221,10 +10224,10 @@
         <v>-7.2595265725693839E+18</v>
       </c>
       <c r="B696">
-        <v>371</v>
+        <v>456</v>
       </c>
       <c r="C696">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="D696" t="s">
         <v>4</v>
@@ -10235,10 +10238,10 @@
         <v>-7.2595265725693839E+18</v>
       </c>
       <c r="B697">
-        <v>456</v>
+        <v>541</v>
       </c>
       <c r="C697">
-        <v>5.9</v>
+        <v>7.1</v>
       </c>
       <c r="D697" t="s">
         <v>4</v>
@@ -10249,10 +10252,10 @@
         <v>-7.2595265725693839E+18</v>
       </c>
       <c r="B698">
-        <v>541</v>
+        <v>637</v>
       </c>
       <c r="C698">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="D698" t="s">
         <v>4</v>
@@ -10260,13 +10263,13 @@
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699">
-        <v>-7.2595265725693839E+18</v>
+        <v>-3.923490622633408E+18</v>
       </c>
       <c r="B699">
-        <v>637</v>
+        <v>-6</v>
       </c>
       <c r="C699">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="D699" t="s">
         <v>4</v>
@@ -10277,10 +10280,10 @@
         <v>-3.923490622633408E+18</v>
       </c>
       <c r="B700">
-        <v>-6</v>
+        <v>64</v>
       </c>
       <c r="C700">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D700" t="s">
         <v>4</v>
@@ -10291,7 +10294,7 @@
         <v>-3.923490622633408E+18</v>
       </c>
       <c r="B701">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="C701">
         <v>15</v>
@@ -10305,10 +10308,10 @@
         <v>-3.923490622633408E+18</v>
       </c>
       <c r="B702">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="C702">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D702" t="s">
         <v>4</v>
@@ -10319,10 +10322,10 @@
         <v>-3.923490622633408E+18</v>
       </c>
       <c r="B703">
-        <v>197</v>
-      </c>
-      <c r="C703">
-        <v>9</v>
+        <v>261</v>
+      </c>
+      <c r="C703" t="s">
+        <v>6</v>
       </c>
       <c r="D703" t="s">
         <v>4</v>
@@ -10333,7 +10336,7 @@
         <v>-3.923490622633408E+18</v>
       </c>
       <c r="B704">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="C704" t="s">
         <v>6</v>
@@ -10347,10 +10350,10 @@
         <v>-3.923490622633408E+18</v>
       </c>
       <c r="B705">
-        <v>324</v>
-      </c>
-      <c r="C705" t="s">
-        <v>6</v>
+        <v>393</v>
+      </c>
+      <c r="C705">
+        <v>0</v>
       </c>
       <c r="D705" t="s">
         <v>4</v>
@@ -10361,7 +10364,7 @@
         <v>-3.923490622633408E+18</v>
       </c>
       <c r="B706">
-        <v>393</v>
+        <v>484</v>
       </c>
       <c r="C706">
         <v>0</v>
@@ -10375,7 +10378,7 @@
         <v>-3.923490622633408E+18</v>
       </c>
       <c r="B707">
-        <v>484</v>
+        <v>568</v>
       </c>
       <c r="C707">
         <v>0</v>
@@ -10386,13 +10389,13 @@
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708">
-        <v>-3.923490622633408E+18</v>
+        <v>-3.1332406808965212E+18</v>
       </c>
       <c r="B708">
-        <v>568</v>
+        <v>-15</v>
       </c>
       <c r="C708">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D708" t="s">
         <v>4</v>
@@ -10403,10 +10406,10 @@
         <v>-3.1332406808965212E+18</v>
       </c>
       <c r="B709">
-        <v>-15</v>
+        <v>63</v>
       </c>
       <c r="C709">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D709" t="s">
         <v>4</v>
@@ -10417,10 +10420,10 @@
         <v>-3.1332406808965212E+18</v>
       </c>
       <c r="B710">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="C710">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D710" t="s">
         <v>4</v>
@@ -10431,7 +10434,7 @@
         <v>-3.1332406808965212E+18</v>
       </c>
       <c r="B711">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="C711">
         <v>27</v>
@@ -10445,10 +10448,10 @@
         <v>-3.1332406808965212E+18</v>
       </c>
       <c r="B712">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="C712">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D712" t="s">
         <v>4</v>
@@ -10459,7 +10462,7 @@
         <v>-3.1332406808965212E+18</v>
       </c>
       <c r="B713">
-        <v>250</v>
+        <v>314</v>
       </c>
       <c r="C713">
         <v>30</v>
@@ -10473,10 +10476,10 @@
         <v>-3.1332406808965212E+18</v>
       </c>
       <c r="B714">
-        <v>314</v>
+        <v>376</v>
       </c>
       <c r="C714">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D714" t="s">
         <v>4</v>
@@ -10487,7 +10490,7 @@
         <v>-3.1332406808965212E+18</v>
       </c>
       <c r="B715">
-        <v>376</v>
+        <v>456</v>
       </c>
       <c r="C715">
         <v>34</v>
@@ -10501,7 +10504,7 @@
         <v>-3.1332406808965212E+18</v>
       </c>
       <c r="B716">
-        <v>456</v>
+        <v>566</v>
       </c>
       <c r="C716">
         <v>34</v>
@@ -10515,10 +10518,10 @@
         <v>-3.1332406808965212E+18</v>
       </c>
       <c r="B717">
-        <v>566</v>
+        <v>657</v>
       </c>
       <c r="C717">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D717" t="s">
         <v>4</v>
@@ -10526,13 +10529,13 @@
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718">
-        <v>-3.1332406808965212E+18</v>
+        <v>7.6019495024637624E+18</v>
       </c>
       <c r="B718">
-        <v>657</v>
+        <v>-9</v>
       </c>
       <c r="C718">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D718" t="s">
         <v>4</v>
@@ -10543,10 +10546,10 @@
         <v>7.6019495024637624E+18</v>
       </c>
       <c r="B719">
-        <v>-9</v>
+        <v>63</v>
       </c>
       <c r="C719">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D719" t="s">
         <v>4</v>
@@ -10557,10 +10560,10 @@
         <v>7.6019495024637624E+18</v>
       </c>
       <c r="B720">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C720">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D720" t="s">
         <v>4</v>
@@ -10571,10 +10574,10 @@
         <v>7.6019495024637624E+18</v>
       </c>
       <c r="B721">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="C721">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D721" t="s">
         <v>4</v>
@@ -10585,10 +10588,10 @@
         <v>7.6019495024637624E+18</v>
       </c>
       <c r="B722">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="C722">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D722" t="s">
         <v>4</v>
@@ -10599,10 +10602,10 @@
         <v>7.6019495024637624E+18</v>
       </c>
       <c r="B723">
-        <v>252</v>
+        <v>315</v>
       </c>
       <c r="C723">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D723" t="s">
         <v>4</v>
@@ -10610,13 +10613,13 @@
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724">
-        <v>7.6019495024637624E+18</v>
+        <v>3.7773953597084621E+18</v>
       </c>
       <c r="B724">
-        <v>315</v>
+        <v>-16</v>
       </c>
       <c r="C724">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D724" t="s">
         <v>4</v>
@@ -10627,10 +10630,10 @@
         <v>3.7773953597084621E+18</v>
       </c>
       <c r="B725">
-        <v>-16</v>
+        <v>64</v>
       </c>
       <c r="C725">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D725" t="s">
         <v>4</v>
@@ -10641,10 +10644,10 @@
         <v>3.7773953597084621E+18</v>
       </c>
       <c r="B726">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="C726">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D726" t="s">
         <v>4</v>
@@ -10652,13 +10655,13 @@
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727">
-        <v>3.7773953597084621E+18</v>
+        <v>-4.3865630845604762E+18</v>
       </c>
       <c r="B727">
-        <v>134</v>
+        <v>-29</v>
       </c>
       <c r="C727">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D727" t="s">
         <v>4</v>
@@ -10669,7 +10672,7 @@
         <v>-4.3865630845604762E+18</v>
       </c>
       <c r="B728">
-        <v>-29</v>
+        <v>60</v>
       </c>
       <c r="C728">
         <v>60</v>
@@ -10683,10 +10686,10 @@
         <v>-4.3865630845604762E+18</v>
       </c>
       <c r="B729">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="C729">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D729" t="s">
         <v>4</v>
@@ -10694,13 +10697,13 @@
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730">
-        <v>-4.3865630845604762E+18</v>
+        <v>8.1167380430058312E+18</v>
       </c>
       <c r="B730">
-        <v>123</v>
+        <v>-14</v>
       </c>
       <c r="C730">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D730" t="s">
         <v>4</v>
@@ -10711,10 +10714,10 @@
         <v>8.1167380430058312E+18</v>
       </c>
       <c r="B731">
-        <v>-14</v>
+        <v>62</v>
       </c>
       <c r="C731">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D731" t="s">
         <v>4</v>
@@ -10725,10 +10728,10 @@
         <v>8.1167380430058312E+18</v>
       </c>
       <c r="B732">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C732">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D732" t="s">
         <v>4</v>
@@ -10739,10 +10742,10 @@
         <v>8.1167380430058312E+18</v>
       </c>
       <c r="B733">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="C733">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D733" t="s">
         <v>4</v>
@@ -10753,10 +10756,10 @@
         <v>8.1167380430058312E+18</v>
       </c>
       <c r="B734">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="C734">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D734" t="s">
         <v>4</v>
@@ -10767,7 +10770,7 @@
         <v>8.1167380430058312E+18</v>
       </c>
       <c r="B735">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="C735">
         <v>29</v>
@@ -10781,10 +10784,10 @@
         <v>8.1167380430058312E+18</v>
       </c>
       <c r="B736">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="C736">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D736" t="s">
         <v>4</v>
@@ -10795,10 +10798,10 @@
         <v>8.1167380430058312E+18</v>
       </c>
       <c r="B737">
-        <v>400</v>
+        <v>481</v>
       </c>
       <c r="C737">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D737" t="s">
         <v>4</v>
@@ -10809,10 +10812,10 @@
         <v>8.1167380430058312E+18</v>
       </c>
       <c r="B738">
-        <v>481</v>
+        <v>565</v>
       </c>
       <c r="C738">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D738" t="s">
         <v>4</v>
@@ -10823,10 +10826,10 @@
         <v>8.1167380430058312E+18</v>
       </c>
       <c r="B739">
-        <v>565</v>
-      </c>
-      <c r="C739">
-        <v>34</v>
+        <v>644</v>
+      </c>
+      <c r="C739" t="s">
+        <v>5</v>
       </c>
       <c r="D739" t="s">
         <v>4</v>
@@ -10837,10 +10840,10 @@
         <v>8.1167380430058312E+18</v>
       </c>
       <c r="B740">
-        <v>644</v>
-      </c>
-      <c r="C740" t="s">
-        <v>5</v>
+        <v>602</v>
+      </c>
+      <c r="C740">
+        <v>39</v>
       </c>
       <c r="D740" t="s">
         <v>4</v>
@@ -10848,13 +10851,13 @@
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741">
-        <v>8.1167380430058312E+18</v>
+        <v>4.3084986771254077E+18</v>
       </c>
       <c r="B741">
-        <v>602</v>
+        <v>-12</v>
       </c>
       <c r="C741">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D741" t="s">
         <v>4</v>
@@ -10865,10 +10868,10 @@
         <v>4.3084986771254077E+18</v>
       </c>
       <c r="B742">
-        <v>-12</v>
+        <v>64</v>
       </c>
       <c r="C742">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D742" t="s">
         <v>4</v>
@@ -10879,10 +10882,10 @@
         <v>4.3084986771254077E+18</v>
       </c>
       <c r="B743">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="C743">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D743" t="s">
         <v>4</v>
@@ -10893,10 +10896,10 @@
         <v>4.3084986771254077E+18</v>
       </c>
       <c r="B744">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="C744">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D744" t="s">
         <v>4</v>
@@ -10904,13 +10907,13 @@
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745">
-        <v>4.3084986771254077E+18</v>
+        <v>-1.295520606406914E+18</v>
       </c>
       <c r="B745">
-        <v>189</v>
+        <v>1</v>
       </c>
       <c r="C745">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D745" t="s">
         <v>4</v>
@@ -10921,10 +10924,10 @@
         <v>-1.295520606406914E+18</v>
       </c>
       <c r="B746">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C746">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D746" t="s">
         <v>4</v>
@@ -10935,10 +10938,10 @@
         <v>-1.295520606406914E+18</v>
       </c>
       <c r="B747">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="C747">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D747" t="s">
         <v>4</v>
@@ -10949,10 +10952,10 @@
         <v>-1.295520606406914E+18</v>
       </c>
       <c r="B748">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="C748">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D748" t="s">
         <v>4</v>
@@ -10963,10 +10966,10 @@
         <v>-1.295520606406914E+18</v>
       </c>
       <c r="B749">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="C749">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D749" t="s">
         <v>4</v>
@@ -10977,7 +10980,7 @@
         <v>-1.295520606406914E+18</v>
       </c>
       <c r="B750">
-        <v>253</v>
+        <v>316</v>
       </c>
       <c r="C750">
         <v>0</v>
@@ -10991,7 +10994,7 @@
         <v>-1.295520606406914E+18</v>
       </c>
       <c r="B751">
-        <v>316</v>
+        <v>380</v>
       </c>
       <c r="C751">
         <v>0</v>
@@ -11005,7 +11008,7 @@
         <v>-1.295520606406914E+18</v>
       </c>
       <c r="B752">
-        <v>380</v>
+        <v>463</v>
       </c>
       <c r="C752">
         <v>0</v>
@@ -11019,7 +11022,7 @@
         <v>-1.295520606406914E+18</v>
       </c>
       <c r="B753">
-        <v>463</v>
+        <v>544</v>
       </c>
       <c r="C753">
         <v>0</v>
@@ -11033,7 +11036,7 @@
         <v>-1.295520606406914E+18</v>
       </c>
       <c r="B754">
-        <v>544</v>
+        <v>631</v>
       </c>
       <c r="C754">
         <v>0</v>
@@ -11044,13 +11047,13 @@
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755">
-        <v>-1.295520606406914E+18</v>
+        <v>1.024638400039086E+18</v>
       </c>
       <c r="B755">
-        <v>631</v>
+        <v>-19</v>
       </c>
       <c r="C755">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D755" t="s">
         <v>4</v>
@@ -11061,10 +11064,10 @@
         <v>1.024638400039086E+18</v>
       </c>
       <c r="B756">
-        <v>-19</v>
+        <v>60</v>
       </c>
       <c r="C756">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D756" t="s">
         <v>4</v>
@@ -11075,10 +11078,10 @@
         <v>1.024638400039086E+18</v>
       </c>
       <c r="B757">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="C757">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D757" t="s">
         <v>4</v>
@@ -11086,13 +11089,13 @@
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758">
-        <v>1.024638400039086E+18</v>
+        <v>8.8606480332364513E+18</v>
       </c>
       <c r="B758">
-        <v>133</v>
+        <v>-15</v>
       </c>
       <c r="C758">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D758" t="s">
         <v>4</v>
@@ -11103,10 +11106,10 @@
         <v>8.8606480332364513E+18</v>
       </c>
       <c r="B759">
-        <v>-15</v>
+        <v>64</v>
       </c>
       <c r="C759">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D759" t="s">
         <v>4</v>
@@ -11117,7 +11120,7 @@
         <v>8.8606480332364513E+18</v>
       </c>
       <c r="B760">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="C760">
         <v>52</v>
@@ -11131,7 +11134,7 @@
         <v>8.8606480332364513E+18</v>
       </c>
       <c r="B761">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="C761">
         <v>52</v>
@@ -11142,13 +11145,13 @@
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762">
-        <v>8.8606480332364513E+18</v>
+        <v>7.4996907381273836E+18</v>
       </c>
       <c r="B762">
-        <v>189</v>
+        <v>-27</v>
       </c>
       <c r="C762">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D762" t="s">
         <v>4</v>
@@ -11159,10 +11162,10 @@
         <v>7.4996907381273836E+18</v>
       </c>
       <c r="B763">
-        <v>-27</v>
+        <v>63</v>
       </c>
       <c r="C763">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="D763" t="s">
         <v>4</v>
@@ -11173,10 +11176,10 @@
         <v>7.4996907381273836E+18</v>
       </c>
       <c r="B764">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C764">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D764" t="s">
         <v>4</v>
@@ -11184,13 +11187,13 @@
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765">
-        <v>7.4996907381273836E+18</v>
+        <v>9.8719162889172096E+17</v>
       </c>
       <c r="B765">
-        <v>126</v>
+        <v>-13</v>
       </c>
       <c r="C765">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="D765" t="s">
         <v>4</v>
@@ -11201,10 +11204,10 @@
         <v>9.8719162889172096E+17</v>
       </c>
       <c r="B766">
-        <v>-13</v>
+        <v>65</v>
       </c>
       <c r="C766">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D766" t="s">
         <v>4</v>
@@ -11215,10 +11218,10 @@
         <v>9.8719162889172096E+17</v>
       </c>
       <c r="B767">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C767">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D767" t="s">
         <v>4</v>
@@ -11226,13 +11229,13 @@
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768">
-        <v>9.8719162889172096E+17</v>
+        <v>3.4317092680185042E+18</v>
       </c>
       <c r="B768">
-        <v>107</v>
+        <v>-28</v>
       </c>
       <c r="C768">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D768" t="s">
         <v>4</v>
@@ -11243,10 +11246,10 @@
         <v>3.4317092680185042E+18</v>
       </c>
       <c r="B769">
-        <v>-28</v>
+        <v>62</v>
       </c>
       <c r="C769">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D769" t="s">
         <v>4</v>
@@ -11257,10 +11260,10 @@
         <v>3.4317092680185042E+18</v>
       </c>
       <c r="B770">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="C770">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D770" t="s">
         <v>4</v>
@@ -11271,10 +11274,10 @@
         <v>3.4317092680185042E+18</v>
       </c>
       <c r="B771">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="C771">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D771" t="s">
         <v>4</v>
@@ -11285,10 +11288,10 @@
         <v>3.4317092680185042E+18</v>
       </c>
       <c r="B772">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="C772">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D772" t="s">
         <v>4</v>
@@ -11299,10 +11302,10 @@
         <v>3.4317092680185042E+18</v>
       </c>
       <c r="B773">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="C773">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D773" t="s">
         <v>4</v>
@@ -11313,10 +11316,10 @@
         <v>3.4317092680185042E+18</v>
       </c>
       <c r="B774">
-        <v>330</v>
+        <v>393</v>
       </c>
       <c r="C774">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D774" t="s">
         <v>4</v>
@@ -11327,10 +11330,10 @@
         <v>3.4317092680185042E+18</v>
       </c>
       <c r="B775">
-        <v>393</v>
+        <v>477</v>
       </c>
       <c r="C775">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D775" t="s">
         <v>4</v>
@@ -11341,10 +11344,10 @@
         <v>3.4317092680185042E+18</v>
       </c>
       <c r="B776">
-        <v>477</v>
+        <v>560</v>
       </c>
       <c r="C776">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D776" t="s">
         <v>4</v>
@@ -11355,10 +11358,10 @@
         <v>3.4317092680185042E+18</v>
       </c>
       <c r="B777">
-        <v>560</v>
-      </c>
-      <c r="C777">
-        <v>50</v>
+        <v>645</v>
+      </c>
+      <c r="C777" t="s">
+        <v>5</v>
       </c>
       <c r="D777" t="s">
         <v>4</v>
@@ -11369,7 +11372,7 @@
         <v>3.4317092680185042E+18</v>
       </c>
       <c r="B778">
-        <v>645</v>
+        <v>691</v>
       </c>
       <c r="C778" t="s">
         <v>5</v>
@@ -11380,13 +11383,13 @@
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A779">
-        <v>3.4317092680185042E+18</v>
+        <v>-1.9580334814680169E+18</v>
       </c>
       <c r="B779">
-        <v>691</v>
-      </c>
-      <c r="C779" t="s">
-        <v>5</v>
+        <v>-3</v>
+      </c>
+      <c r="C779">
+        <v>22</v>
       </c>
       <c r="D779" t="s">
         <v>4</v>
@@ -11397,10 +11400,10 @@
         <v>-1.9580334814680169E+18</v>
       </c>
       <c r="B780">
-        <v>-3</v>
+        <v>60</v>
       </c>
       <c r="C780">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D780" t="s">
         <v>4</v>
@@ -11411,7 +11414,7 @@
         <v>-1.9580334814680169E+18</v>
       </c>
       <c r="B781">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C781">
         <v>0</v>
@@ -11425,7 +11428,7 @@
         <v>-1.9580334814680169E+18</v>
       </c>
       <c r="B782">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="C782">
         <v>0</v>
@@ -11439,7 +11442,7 @@
         <v>-1.9580334814680169E+18</v>
       </c>
       <c r="B783">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="C783">
         <v>0</v>
@@ -11453,7 +11456,7 @@
         <v>-1.9580334814680169E+18</v>
       </c>
       <c r="B784">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="C784">
         <v>0</v>
@@ -11467,7 +11470,7 @@
         <v>-1.9580334814680169E+18</v>
       </c>
       <c r="B785">
-        <v>313</v>
+        <v>396</v>
       </c>
       <c r="C785">
         <v>0</v>
@@ -11481,7 +11484,7 @@
         <v>-1.9580334814680169E+18</v>
       </c>
       <c r="B786">
-        <v>396</v>
+        <v>480</v>
       </c>
       <c r="C786">
         <v>0</v>
@@ -11495,7 +11498,7 @@
         <v>-1.9580334814680169E+18</v>
       </c>
       <c r="B787">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="C787">
         <v>0</v>
@@ -11506,13 +11509,13 @@
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788">
-        <v>-1.9580334814680169E+18</v>
+        <v>6.7039284076696617E+18</v>
       </c>
       <c r="B788">
-        <v>560</v>
+        <v>-11</v>
       </c>
       <c r="C788">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="D788" t="s">
         <v>4</v>
@@ -11523,10 +11526,10 @@
         <v>6.7039284076696617E+18</v>
       </c>
       <c r="B789">
-        <v>-11</v>
+        <v>60</v>
       </c>
       <c r="C789">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D789" t="s">
         <v>4</v>
@@ -11537,10 +11540,10 @@
         <v>6.7039284076696617E+18</v>
       </c>
       <c r="B790">
+        <v>122</v>
+      </c>
+      <c r="C790">
         <v>60</v>
-      </c>
-      <c r="C790">
-        <v>84</v>
       </c>
       <c r="D790" t="s">
         <v>4</v>
@@ -11551,7 +11554,7 @@
         <v>6.7039284076696617E+18</v>
       </c>
       <c r="B791">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="C791">
         <v>60</v>
@@ -11565,10 +11568,10 @@
         <v>6.7039284076696617E+18</v>
       </c>
       <c r="B792">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="C792">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D792" t="s">
         <v>4</v>
@@ -11579,10 +11582,10 @@
         <v>6.7039284076696617E+18</v>
       </c>
       <c r="B793">
-        <v>249</v>
+        <v>310</v>
       </c>
       <c r="C793">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D793" t="s">
         <v>4</v>
@@ -11593,10 +11596,10 @@
         <v>6.7039284076696617E+18</v>
       </c>
       <c r="B794">
-        <v>310</v>
+        <v>382</v>
       </c>
       <c r="C794">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D794" t="s">
         <v>4</v>
@@ -11607,10 +11610,10 @@
         <v>6.7039284076696617E+18</v>
       </c>
       <c r="B795">
-        <v>382</v>
+        <v>465</v>
       </c>
       <c r="C795">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D795" t="s">
         <v>4</v>
@@ -11621,10 +11624,10 @@
         <v>6.7039284076696617E+18</v>
       </c>
       <c r="B796">
-        <v>465</v>
+        <v>547</v>
       </c>
       <c r="C796">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D796" t="s">
         <v>4</v>
@@ -11635,10 +11638,10 @@
         <v>6.7039284076696617E+18</v>
       </c>
       <c r="B797">
-        <v>547</v>
+        <v>638</v>
       </c>
       <c r="C797">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D797" t="s">
         <v>4</v>
@@ -11649,10 +11652,10 @@
         <v>6.7039284076696617E+18</v>
       </c>
       <c r="B798">
-        <v>638</v>
-      </c>
-      <c r="C798">
-        <v>117</v>
+        <v>15</v>
+      </c>
+      <c r="C798" t="s">
+        <v>5</v>
       </c>
       <c r="D798" t="s">
         <v>4</v>
@@ -11663,10 +11666,10 @@
         <v>6.7039284076696617E+18</v>
       </c>
       <c r="B799">
-        <v>15</v>
-      </c>
-      <c r="C799" t="s">
-        <v>5</v>
+        <v>596</v>
+      </c>
+      <c r="C799">
+        <v>108</v>
       </c>
       <c r="D799" t="s">
         <v>4</v>
@@ -11674,13 +11677,13 @@
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A800">
-        <v>6.7039284076696617E+18</v>
+        <v>7.745986980014677E+18</v>
       </c>
       <c r="B800">
-        <v>596</v>
+        <v>-1</v>
       </c>
       <c r="C800">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="D800" t="s">
         <v>4</v>
@@ -11691,10 +11694,10 @@
         <v>7.745986980014677E+18</v>
       </c>
       <c r="B801">
-        <v>-1</v>
+        <v>50</v>
       </c>
       <c r="C801">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D801" t="s">
         <v>4</v>
@@ -11705,10 +11708,10 @@
         <v>7.745986980014677E+18</v>
       </c>
       <c r="B802">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C802">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D802" t="s">
         <v>4</v>
@@ -11716,13 +11719,13 @@
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A803">
-        <v>7.745986980014677E+18</v>
+        <v>-4.1221281159899351E+18</v>
       </c>
       <c r="B803">
-        <v>84</v>
+        <v>-29</v>
       </c>
       <c r="C803">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="D803" t="s">
         <v>4</v>
@@ -11733,10 +11736,10 @@
         <v>-4.1221281159899351E+18</v>
       </c>
       <c r="B804">
-        <v>-29</v>
+        <v>59</v>
       </c>
       <c r="C804">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="D804" t="s">
         <v>4</v>
@@ -11747,10 +11750,10 @@
         <v>-4.1221281159899351E+18</v>
       </c>
       <c r="B805">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="C805">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="D805" t="s">
         <v>4</v>
@@ -11758,13 +11761,13 @@
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A806">
-        <v>-4.1221281159899351E+18</v>
+        <v>8.7377794874768722E+18</v>
       </c>
       <c r="B806">
-        <v>125</v>
+        <v>-14</v>
       </c>
       <c r="C806">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="D806" t="s">
         <v>4</v>
@@ -11775,10 +11778,10 @@
         <v>8.7377794874768722E+18</v>
       </c>
       <c r="B807">
-        <v>-14</v>
+        <v>64</v>
       </c>
       <c r="C807">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D807" t="s">
         <v>4</v>
@@ -11789,10 +11792,10 @@
         <v>8.7377794874768722E+18</v>
       </c>
       <c r="B808">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="C808">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D808" t="s">
         <v>4</v>
@@ -11800,13 +11803,13 @@
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A809">
-        <v>8.7377794874768722E+18</v>
+        <v>2.192341039922838E+18</v>
       </c>
       <c r="B809">
-        <v>124</v>
+        <v>-7</v>
       </c>
       <c r="C809">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="D809" t="s">
         <v>4</v>
@@ -11817,10 +11820,10 @@
         <v>2.192341039922838E+18</v>
       </c>
       <c r="B810">
-        <v>-7</v>
+        <v>57</v>
       </c>
       <c r="C810">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D810" t="s">
         <v>4</v>
@@ -11831,10 +11834,10 @@
         <v>2.192341039922838E+18</v>
       </c>
       <c r="B811">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="C811">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D811" t="s">
         <v>4</v>
@@ -11845,10 +11848,10 @@
         <v>2.192341039922838E+18</v>
       </c>
       <c r="B812">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="C812">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D812" t="s">
         <v>4</v>
@@ -11856,13 +11859,13 @@
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A813">
-        <v>2.192341039922838E+18</v>
+        <v>7.5573843544056207E+18</v>
       </c>
       <c r="B813">
-        <v>183</v>
+        <v>-19</v>
       </c>
       <c r="C813">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D813" t="s">
         <v>4</v>
@@ -11873,10 +11876,10 @@
         <v>7.5573843544056207E+18</v>
       </c>
       <c r="B814">
-        <v>-19</v>
+        <v>65</v>
       </c>
       <c r="C814">
-        <v>11</v>
+        <v>15.2</v>
       </c>
       <c r="D814" t="s">
         <v>4</v>
@@ -11887,10 +11890,10 @@
         <v>7.5573843544056207E+18</v>
       </c>
       <c r="B815">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="C815">
-        <v>15.2</v>
+        <v>19.77</v>
       </c>
       <c r="D815" t="s">
         <v>4</v>
@@ -11901,10 +11904,10 @@
         <v>7.5573843544056207E+18</v>
       </c>
       <c r="B816">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="C816">
-        <v>19.77</v>
+        <v>18.3</v>
       </c>
       <c r="D816" t="s">
         <v>4</v>
@@ -11915,10 +11918,10 @@
         <v>7.5573843544056207E+18</v>
       </c>
       <c r="B817">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="C817">
-        <v>18.3</v>
+        <v>19</v>
       </c>
       <c r="D817" t="s">
         <v>4</v>
@@ -11929,10 +11932,10 @@
         <v>7.5573843544056207E+18</v>
       </c>
       <c r="B818">
-        <v>253</v>
+        <v>310</v>
       </c>
       <c r="C818">
-        <v>19</v>
+        <v>23.96</v>
       </c>
       <c r="D818" t="s">
         <v>4</v>
@@ -11940,13 +11943,13 @@
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A819">
-        <v>7.5573843544056207E+18</v>
+        <v>4.490305391059199E+18</v>
       </c>
       <c r="B819">
-        <v>310</v>
+        <v>-9</v>
       </c>
       <c r="C819">
-        <v>23.96</v>
+        <v>10</v>
       </c>
       <c r="D819" t="s">
         <v>4</v>
@@ -11957,7 +11960,7 @@
         <v>4.490305391059199E+18</v>
       </c>
       <c r="B820">
-        <v>-9</v>
+        <v>57</v>
       </c>
       <c r="C820">
         <v>10</v>
@@ -11971,10 +11974,10 @@
         <v>4.490305391059199E+18</v>
       </c>
       <c r="B821">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="C821">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D821" t="s">
         <v>4</v>
@@ -11985,10 +11988,10 @@
         <v>4.490305391059199E+18</v>
       </c>
       <c r="B822">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="C822">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D822" t="s">
         <v>4</v>
@@ -11999,10 +12002,10 @@
         <v>4.490305391059199E+18</v>
       </c>
       <c r="B823">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="C823">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D823" t="s">
         <v>4</v>
@@ -12013,10 +12016,10 @@
         <v>4.490305391059199E+18</v>
       </c>
       <c r="B824">
-        <v>251</v>
+        <v>313</v>
       </c>
       <c r="C824">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D824" t="s">
         <v>4</v>
@@ -12027,10 +12030,10 @@
         <v>4.490305391059199E+18</v>
       </c>
       <c r="B825">
-        <v>313</v>
+        <v>377</v>
       </c>
       <c r="C825">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D825" t="s">
         <v>4</v>
@@ -12041,7 +12044,7 @@
         <v>4.490305391059199E+18</v>
       </c>
       <c r="B826">
-        <v>377</v>
+        <v>481</v>
       </c>
       <c r="C826">
         <v>10</v>
@@ -12055,7 +12058,7 @@
         <v>4.490305391059199E+18</v>
       </c>
       <c r="B827">
-        <v>481</v>
+        <v>563</v>
       </c>
       <c r="C827">
         <v>10</v>
@@ -12066,13 +12069,13 @@
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A828">
-        <v>4.490305391059199E+18</v>
+        <v>-3.7394866487018081E+18</v>
       </c>
       <c r="B828">
-        <v>563</v>
+        <v>-3</v>
       </c>
       <c r="C828">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="D828" t="s">
         <v>4</v>
@@ -12083,10 +12086,10 @@
         <v>-3.7394866487018081E+18</v>
       </c>
       <c r="B829">
-        <v>-3</v>
+        <v>189</v>
       </c>
       <c r="C829">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D829" t="s">
         <v>4</v>
@@ -12097,7 +12100,7 @@
         <v>-3.7394866487018081E+18</v>
       </c>
       <c r="B830">
-        <v>189</v>
+        <v>251</v>
       </c>
       <c r="C830">
         <v>0</v>
@@ -12111,7 +12114,7 @@
         <v>-3.7394866487018081E+18</v>
       </c>
       <c r="B831">
-        <v>251</v>
+        <v>316</v>
       </c>
       <c r="C831">
         <v>0</v>
@@ -12125,7 +12128,7 @@
         <v>-3.7394866487018081E+18</v>
       </c>
       <c r="B832">
-        <v>316</v>
+        <v>401</v>
       </c>
       <c r="C832">
         <v>0</v>
@@ -12139,7 +12142,7 @@
         <v>-3.7394866487018081E+18</v>
       </c>
       <c r="B833">
-        <v>401</v>
+        <v>482</v>
       </c>
       <c r="C833">
         <v>0</v>
@@ -12153,7 +12156,7 @@
         <v>-3.7394866487018081E+18</v>
       </c>
       <c r="B834">
-        <v>482</v>
+        <v>569</v>
       </c>
       <c r="C834">
         <v>0</v>
@@ -12167,26 +12170,12 @@
         <v>-3.7394866487018081E+18</v>
       </c>
       <c r="B835">
-        <v>569</v>
+        <v>653</v>
       </c>
       <c r="C835">
         <v>0</v>
       </c>
       <c r="D835" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A836">
-        <v>-3.7394866487018081E+18</v>
-      </c>
-      <c r="B836">
-        <v>653</v>
-      </c>
-      <c r="C836">
-        <v>0</v>
-      </c>
-      <c r="D836" t="s">
         <v>4</v>
       </c>
     </row>
